--- a/capiq_data/in_process_data/IQ250885.xlsx
+++ b/capiq_data/in_process_data/IQ250885.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B645CE-FA48-4764-B95E-1D65B4C2A2DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16A37C4-BD54-47B8-A789-0AA463CE3DD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2a518af9-401a-4416-ad46-ac1c7dfe7678"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a26eeed3-823e-440b-8bfe-2e3b9121e5ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ41997</t>
+  </si>
+  <si>
+    <t>FQ11998</t>
+  </si>
+  <si>
+    <t>FQ21998</t>
+  </si>
+  <si>
+    <t>FQ31998</t>
+  </si>
+  <si>
+    <t>FQ41998</t>
+  </si>
+  <si>
+    <t>FQ11999</t>
+  </si>
+  <si>
+    <t>FQ21999</t>
+  </si>
+  <si>
+    <t>FQ31999</t>
+  </si>
+  <si>
+    <t>FQ41999</t>
+  </si>
+  <si>
+    <t>FQ12000</t>
+  </si>
+  <si>
+    <t>FQ22000</t>
+  </si>
+  <si>
+    <t>FQ32000</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>35795</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>40.154000000000003</v>
+        <v>25.966999999999999</v>
       </c>
       <c r="D2">
-        <v>613.15200000000004</v>
+        <v>236.91499999999999</v>
       </c>
       <c r="E2">
-        <v>308.76400000000001</v>
+        <v>121.819</v>
       </c>
       <c r="F2">
-        <v>285.69</v>
+        <v>126.63</v>
       </c>
       <c r="G2">
-        <v>1457.7750000000001</v>
+        <v>172.858</v>
       </c>
       <c r="H2">
-        <v>14086.245999999999</v>
+        <v>4314.2860000000001</v>
       </c>
       <c r="I2">
-        <v>188.34299999999999</v>
+        <v>42.765999999999998</v>
       </c>
       <c r="J2">
-        <v>5417.1679999999997</v>
+        <v>1870.7660000000001</v>
       </c>
       <c r="K2">
-        <v>228.905</v>
+        <v>134.762</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1106.7639999999999</v>
+        <v>306.45299999999997</v>
       </c>
       <c r="O2">
-        <v>9953.9740000000002</v>
+        <v>3074.2069999999999</v>
       </c>
       <c r="P2">
-        <v>5682.165</v>
+        <v>2030.6759999999999</v>
       </c>
       <c r="Q2">
-        <v>-10.388999999999999</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>35795</v>
       </c>
       <c r="S2">
-        <v>7600</v>
+        <v>4034</v>
       </c>
       <c r="T2">
-        <v>4132.2719999999999</v>
+        <v>1240.079</v>
       </c>
       <c r="U2">
-        <v>13.112</v>
+        <v>12.661</v>
       </c>
       <c r="V2">
-        <v>187.90600000000001</v>
+        <v>84.975999999999999</v>
       </c>
       <c r="W2">
-        <v>-38.475999999999999</v>
+        <v>-16.103999999999999</v>
       </c>
       <c r="X2">
-        <v>42.496000000000002</v>
+        <v>36.411999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>40.154000000000003</v>
+        <v>25.966999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>35885</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>26.233000000000001</v>
+        <v>21.588000000000001</v>
       </c>
       <c r="D3">
-        <v>596.71500000000003</v>
+        <v>265.28899999999999</v>
       </c>
       <c r="E3">
-        <v>251.941</v>
+        <v>116.184</v>
       </c>
       <c r="F3">
-        <v>285.89400000000001</v>
+        <v>142.25</v>
       </c>
       <c r="G3">
-        <v>1305.539</v>
+        <v>199.46100000000001</v>
       </c>
       <c r="H3">
-        <v>14128.807000000001</v>
+        <v>4378.0060000000003</v>
       </c>
       <c r="I3">
-        <v>132.72499999999999</v>
+        <v>26.876999999999999</v>
       </c>
       <c r="J3">
-        <v>5387.643</v>
+        <v>1877.2439999999999</v>
       </c>
       <c r="K3">
-        <v>323.48399999999998</v>
+        <v>160.19200000000001</v>
       </c>
       <c r="L3">
-        <v>-40.527999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-62.637</v>
+        <v>-4.5670000000000002</v>
       </c>
       <c r="N3">
-        <v>1134.8800000000001</v>
+        <v>339.25700000000001</v>
       </c>
       <c r="O3">
-        <v>9978.1530000000002</v>
+        <v>3126.8960000000002</v>
       </c>
       <c r="P3">
-        <v>5723.2950000000001</v>
+        <v>2068.739</v>
       </c>
       <c r="Q3">
-        <v>0.41599999999999998</v>
+        <v>12.596</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>35885</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4150.6540000000005</v>
+        <v>1251.1099999999999</v>
       </c>
       <c r="U3">
-        <v>13.528</v>
+        <v>25.257000000000001</v>
       </c>
       <c r="V3">
-        <v>161.52600000000001</v>
+        <v>59.033000000000001</v>
       </c>
       <c r="W3">
-        <v>-38.524999999999999</v>
+        <v>-17.341999999999999</v>
       </c>
       <c r="X3">
-        <v>5.0780000000000003</v>
+        <v>27.172000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>26.233000000000001</v>
+        <v>23.696999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>35976</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>81.11</v>
+        <v>41.720999999999997</v>
       </c>
       <c r="D4">
-        <v>668.87300000000005</v>
+        <v>301.15600000000001</v>
       </c>
       <c r="E4">
-        <v>294.56900000000002</v>
+        <v>135.65700000000001</v>
       </c>
       <c r="F4">
-        <v>341.71600000000001</v>
+        <v>168.18299999999999</v>
       </c>
       <c r="G4">
-        <v>1493.2139999999999</v>
+        <v>202.989</v>
       </c>
       <c r="H4">
-        <v>14347.216</v>
+        <v>4481.7579999999998</v>
       </c>
       <c r="I4">
-        <v>159.024</v>
+        <v>27.507000000000001</v>
       </c>
       <c r="J4">
-        <v>5384.7269999999999</v>
+        <v>1894.298</v>
       </c>
       <c r="K4">
-        <v>449.94</v>
+        <v>230.41</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1327.646</v>
+        <v>386.07</v>
       </c>
       <c r="O4">
-        <v>10184.749</v>
+        <v>3202.7310000000002</v>
       </c>
       <c r="P4">
-        <v>5843.1059999999998</v>
+        <v>2145.761</v>
       </c>
       <c r="Q4">
-        <v>-6.2E-2</v>
+        <v>-18.827999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>35976</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4162.4669999999996</v>
+        <v>1279.027</v>
       </c>
       <c r="U4">
-        <v>13.465999999999999</v>
+        <v>24.334</v>
       </c>
       <c r="V4">
-        <v>100.87</v>
+        <v>40.835999999999999</v>
       </c>
       <c r="W4">
-        <v>-38.58</v>
+        <v>-20.192</v>
       </c>
       <c r="X4">
-        <v>108.30500000000001</v>
+        <v>66.83</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>81.11</v>
+        <v>39.612000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>36068</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>137.422</v>
+        <v>53.587000000000003</v>
       </c>
       <c r="D5">
-        <v>760.86900000000003</v>
+        <v>333.51499999999999</v>
       </c>
       <c r="E5">
-        <v>309.11099999999999</v>
+        <v>141.25399999999999</v>
       </c>
       <c r="F5">
-        <v>420.53</v>
+        <v>192.92400000000001</v>
       </c>
       <c r="G5">
-        <v>1479.461</v>
+        <v>212.46799999999999</v>
       </c>
       <c r="H5">
-        <v>14538.733</v>
+        <v>4585.4690000000001</v>
       </c>
       <c r="I5">
-        <v>190.55600000000001</v>
+        <v>29.8</v>
       </c>
       <c r="J5">
-        <v>5383.5150000000003</v>
+        <v>2080.7460000000001</v>
       </c>
       <c r="K5">
-        <v>408.99799999999999</v>
+        <v>84.713999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1380.0139999999999</v>
+        <v>248.88</v>
       </c>
       <c r="O5">
-        <v>10275.543</v>
+        <v>3269.0160000000001</v>
       </c>
       <c r="P5">
-        <v>5801.4620000000004</v>
+        <v>2184.2660000000001</v>
       </c>
       <c r="Q5">
-        <v>2.1549999999999998</v>
+        <v>16.997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>36068</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>4263.1899999999996</v>
+        <v>1316.453</v>
       </c>
       <c r="U5">
-        <v>15.621</v>
+        <v>29.209</v>
       </c>
       <c r="V5">
-        <v>313.64800000000002</v>
+        <v>98.832999999999998</v>
       </c>
       <c r="W5">
-        <v>-40.357999999999997</v>
+        <v>-18.888000000000002</v>
       </c>
       <c r="X5">
-        <v>-80.917000000000002</v>
+        <v>44.442</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>137.422</v>
+        <v>53.588000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>36160</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>64.847999999999999</v>
+        <v>33.542999999999999</v>
       </c>
       <c r="D6">
-        <v>639.779</v>
+        <v>300.077</v>
       </c>
       <c r="E6">
-        <v>366.82799999999997</v>
+        <v>158.69800000000001</v>
       </c>
       <c r="F6">
-        <v>331.92099999999999</v>
+        <v>160.161</v>
       </c>
       <c r="G6">
-        <v>1397.6590000000001</v>
+        <v>260.226</v>
       </c>
       <c r="H6">
-        <v>14776.391</v>
+        <v>5458.6580000000004</v>
       </c>
       <c r="I6">
-        <v>243.709</v>
+        <v>63.271999999999998</v>
       </c>
       <c r="J6">
-        <v>5361.0839999999998</v>
+        <v>2332.1869999999999</v>
       </c>
       <c r="K6">
-        <v>515.04999999999995</v>
+        <v>88.59</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1489.105</v>
+        <v>333.12900000000002</v>
       </c>
       <c r="O6">
-        <v>10536.007</v>
+        <v>3879.9580000000001</v>
       </c>
       <c r="P6">
-        <v>5904.9920000000002</v>
+        <v>2474.54</v>
       </c>
       <c r="Q6">
-        <v>-1.4139999999999999</v>
+        <v>-1.702</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>36160</v>
       </c>
       <c r="S6">
-        <v>7000</v>
+        <v>4063</v>
       </c>
       <c r="T6">
-        <v>4240.384</v>
+        <v>1578.7</v>
       </c>
       <c r="U6">
-        <v>14.207000000000001</v>
+        <v>39.877000000000002</v>
       </c>
       <c r="V6">
-        <v>232.31299999999999</v>
+        <v>113.49299999999999</v>
       </c>
       <c r="W6">
-        <v>-40.392000000000003</v>
+        <v>-18.951000000000001</v>
       </c>
       <c r="X6">
-        <v>72.668999999999997</v>
+        <v>53.295999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>64.847999999999999</v>
+        <v>33.542999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>36250</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>41.753999999999998</v>
+        <v>20.422000000000001</v>
       </c>
       <c r="D7">
-        <v>618.55399999999997</v>
+        <v>277.416</v>
       </c>
       <c r="E7">
-        <v>255.673</v>
+        <v>125.092</v>
       </c>
       <c r="F7">
-        <v>310.95</v>
+        <v>142.97</v>
       </c>
       <c r="G7">
-        <v>589.10900000000004</v>
+        <v>213.31399999999999</v>
       </c>
       <c r="H7">
-        <v>14087.739</v>
+        <v>4750.1099999999997</v>
       </c>
       <c r="I7">
-        <v>162.41399999999999</v>
+        <v>33.752000000000002</v>
       </c>
       <c r="J7">
-        <v>5369.7939999999999</v>
+        <v>2105.1289999999999</v>
       </c>
       <c r="K7">
-        <v>147.21199999999999</v>
+        <v>114.057</v>
       </c>
       <c r="L7">
-        <v>-368.52100000000002</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-6.2290000000000001</v>
+        <v>-36.353999999999999</v>
       </c>
       <c r="N7">
-        <v>743.68899999999996</v>
+        <v>325.88</v>
       </c>
       <c r="O7">
-        <v>9832.3029999999999</v>
+        <v>3408.902</v>
       </c>
       <c r="P7">
-        <v>5547.1319999999996</v>
+        <v>2262.4870000000001</v>
       </c>
       <c r="Q7">
-        <v>-4.7050000000000001</v>
+        <v>7.9820000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>36250</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4255.4359999999997</v>
+        <v>1341.2080000000001</v>
       </c>
       <c r="U7">
-        <v>9.5020000000000007</v>
+        <v>45.609000000000002</v>
       </c>
       <c r="V7">
-        <v>148.09899999999999</v>
+        <v>69.832999999999998</v>
       </c>
       <c r="W7">
-        <v>-40.414000000000001</v>
+        <v>-19.797999999999998</v>
       </c>
       <c r="X7">
-        <v>-382.40899999999999</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>41.753999999999998</v>
+        <v>20.422000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>36341</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>107.026</v>
+        <v>33.122</v>
       </c>
       <c r="D8">
-        <v>745.60699999999997</v>
+        <v>318.97500000000002</v>
       </c>
       <c r="E8">
-        <v>336.44900000000001</v>
+        <v>181.095</v>
       </c>
       <c r="F8">
-        <v>418.03</v>
+        <v>179.261</v>
       </c>
       <c r="G8">
-        <v>606.37400000000002</v>
+        <v>292.471</v>
       </c>
       <c r="H8">
-        <v>14412.761</v>
+        <v>5691.9930000000004</v>
       </c>
       <c r="I8">
-        <v>183.90799999999999</v>
+        <v>50.884</v>
       </c>
       <c r="J8">
-        <v>5222.4080000000004</v>
+        <v>2380.6779999999999</v>
       </c>
       <c r="K8">
-        <v>361.97199999999998</v>
+        <v>150.95099999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1017.9640000000001</v>
+        <v>400.69099999999997</v>
       </c>
       <c r="O8">
-        <v>10086.786</v>
+        <v>4045.3330000000001</v>
       </c>
       <c r="P8">
-        <v>5704.6689999999999</v>
+        <v>2590.37</v>
       </c>
       <c r="Q8">
-        <v>3.4169999999999998</v>
+        <v>-12.259</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>36341</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4325.9750000000004</v>
+        <v>1646.66</v>
       </c>
       <c r="U8">
-        <v>12.919</v>
+        <v>47.517000000000003</v>
       </c>
       <c r="V8">
-        <v>168.77199999999999</v>
+        <v>28.667000000000002</v>
       </c>
       <c r="W8">
-        <v>-40.529000000000003</v>
+        <v>-17.068000000000001</v>
       </c>
       <c r="X8">
-        <v>34.581000000000003</v>
+        <v>81.641999999999996</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>107.026</v>
+        <v>33.122</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>36433</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>153.81200000000001</v>
+        <v>52.847000000000001</v>
       </c>
       <c r="D9">
-        <v>831.81500000000005</v>
+        <v>353.57799999999997</v>
       </c>
       <c r="E9">
-        <v>354.19900000000001</v>
+        <v>179.857</v>
       </c>
       <c r="F9">
-        <v>476.68900000000002</v>
+        <v>205.53299999999999</v>
       </c>
       <c r="G9">
-        <v>642.52499999999998</v>
+        <v>284.303</v>
       </c>
       <c r="H9">
-        <v>14599.535</v>
+        <v>5777.9920000000002</v>
       </c>
       <c r="I9">
-        <v>202.28299999999999</v>
+        <v>49.094999999999999</v>
       </c>
       <c r="J9">
-        <v>5203.8670000000002</v>
+        <v>2396.817</v>
       </c>
       <c r="K9">
-        <v>297.85899999999998</v>
+        <v>119.867</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1005.874</v>
+        <v>397.08699999999999</v>
       </c>
       <c r="O9">
-        <v>10150.195</v>
+        <v>4084.0140000000001</v>
       </c>
       <c r="P9">
-        <v>5536.69</v>
+        <v>2577.2640000000001</v>
       </c>
       <c r="Q9">
-        <v>5.6120000000000001</v>
+        <v>-1.534</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>36433</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>4449.34</v>
+        <v>1693.9780000000001</v>
       </c>
       <c r="U9">
-        <v>18.530999999999999</v>
+        <v>45.982999999999997</v>
       </c>
       <c r="V9">
-        <v>418.14299999999997</v>
+        <v>122.801</v>
       </c>
       <c r="W9">
-        <v>-44.08</v>
+        <v>-21.763999999999999</v>
       </c>
       <c r="X9">
-        <v>-197.506</v>
+        <v>-8.9390000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>153.81200000000001</v>
+        <v>52.847000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>36525</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>55.478000000000002</v>
+        <v>32.558</v>
       </c>
       <c r="D10">
-        <v>680.91300000000001</v>
+        <v>310.88799999999998</v>
       </c>
       <c r="E10">
-        <v>375.40899999999999</v>
+        <v>167.21199999999999</v>
       </c>
       <c r="F10">
-        <v>340.52300000000002</v>
+        <v>166.24299999999999</v>
       </c>
       <c r="G10">
-        <v>499.447</v>
+        <v>278.68099999999998</v>
       </c>
       <c r="H10">
-        <v>14718.976000000001</v>
+        <v>5952.2060000000001</v>
       </c>
       <c r="I10">
-        <v>279.613</v>
+        <v>67.063999999999993</v>
       </c>
       <c r="J10">
-        <v>5209.37</v>
+        <v>2393.0970000000002</v>
       </c>
       <c r="K10">
-        <v>269.98500000000001</v>
+        <v>239.864</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>994.83199999999999</v>
+        <v>491.70800000000003</v>
       </c>
       <c r="O10">
-        <v>10273.987999999999</v>
+        <v>4223.5969999999998</v>
       </c>
       <c r="P10">
-        <v>5595.2740000000003</v>
+        <v>2671.3159999999998</v>
       </c>
       <c r="Q10">
-        <v>5.9020000000000001</v>
+        <v>9.0340000000000007</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>36525</v>
       </c>
       <c r="S10">
-        <v>6700</v>
+        <v>4970</v>
       </c>
       <c r="T10">
-        <v>4444.9880000000003</v>
+        <v>1728.6089999999999</v>
       </c>
       <c r="U10">
-        <v>24.433</v>
+        <v>43.1</v>
       </c>
       <c r="V10">
-        <v>220.584</v>
+        <v>108.09099999999999</v>
       </c>
       <c r="W10">
-        <v>-88.436000000000007</v>
+        <v>-24.724</v>
       </c>
       <c r="X10">
-        <v>-17.681999999999999</v>
+        <v>88.671999999999997</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>55.478000000000002</v>
+        <v>32.558</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>36616</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>57.643000000000001</v>
+        <v>27.082999999999998</v>
       </c>
       <c r="D11">
-        <v>636.13699999999994</v>
+        <v>307.75900000000001</v>
       </c>
       <c r="E11">
-        <v>353.59300000000002</v>
+        <v>159.10499999999999</v>
       </c>
       <c r="F11">
-        <v>323.93400000000003</v>
+        <v>163.40100000000001</v>
       </c>
       <c r="G11">
-        <v>491.85</v>
+        <v>266.12299999999999</v>
       </c>
       <c r="H11">
-        <v>14769.216</v>
+        <v>6030.7380000000003</v>
       </c>
       <c r="I11">
-        <v>166.72300000000001</v>
+        <v>40.497999999999998</v>
       </c>
       <c r="J11">
-        <v>5202.5950000000003</v>
+        <v>2421.2359999999999</v>
       </c>
       <c r="K11">
-        <v>333.786</v>
+        <v>235.63</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-4.234</v>
       </c>
       <c r="M11">
-        <v>-2.3919999999999999</v>
+        <v>-1.4239999999999999</v>
       </c>
       <c r="N11">
-        <v>958.33199999999999</v>
+        <v>482.53199999999998</v>
       </c>
       <c r="O11">
-        <v>10259.554</v>
+        <v>4279.9250000000002</v>
       </c>
       <c r="P11">
-        <v>5652.3050000000003</v>
+        <v>2707.6030000000001</v>
       </c>
       <c r="Q11">
-        <v>-3.2519999999999998</v>
+        <v>-4.6929999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>36616</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4509.6620000000003</v>
+        <v>1750.8130000000001</v>
       </c>
       <c r="U11">
-        <v>21.181000000000001</v>
+        <v>38.406999999999996</v>
       </c>
       <c r="V11">
-        <v>149.625</v>
+        <v>58.15</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-22.896000000000001</v>
       </c>
       <c r="X11">
-        <v>74.832999999999998</v>
+        <v>27.535</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>57.643000000000001</v>
+        <v>27.082999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>36707</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>45.139000000000003</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>346.40899999999999</v>
       </c>
       <c r="E12">
-        <v>431.02800000000002</v>
+        <v>192.078</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>192.13900000000001</v>
       </c>
       <c r="G12">
-        <v>545.84</v>
+        <v>307.15899999999999</v>
       </c>
       <c r="H12">
-        <v>14977.377</v>
+        <v>6104.1009999999997</v>
       </c>
       <c r="I12">
-        <v>178.41800000000001</v>
+        <v>37.850999999999999</v>
       </c>
       <c r="J12">
-        <v>5198.326</v>
+        <v>2391.71</v>
       </c>
       <c r="K12">
-        <v>466.46199999999999</v>
+        <v>332.18599999999998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1049.306</v>
+        <v>582.06299999999999</v>
       </c>
       <c r="O12">
-        <v>10405.251</v>
+        <v>4358.2920000000004</v>
       </c>
       <c r="P12">
-        <v>5778.652</v>
+        <v>2789.6419999999998</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.7409999999999997</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>36707</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4572.1260000000002</v>
+        <v>1745.809</v>
       </c>
       <c r="U12">
-        <v>20.366</v>
+        <v>43.148000000000003</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>37.798000000000002</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-22.994</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>71.742999999999995</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>45.139000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>36799</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>50.731000000000002</v>
       </c>
       <c r="D13">
-        <v>822.19</v>
+        <v>364.125</v>
       </c>
       <c r="E13">
-        <v>466.41199999999998</v>
+        <v>196.71100000000001</v>
       </c>
       <c r="F13">
-        <v>484.51600000000002</v>
+        <v>209.72499999999999</v>
       </c>
       <c r="G13">
-        <v>613.22</v>
+        <v>282.70800000000003</v>
       </c>
       <c r="H13">
-        <v>15228.446</v>
+        <v>6074.9539999999997</v>
       </c>
       <c r="I13">
-        <v>209.768</v>
+        <v>40.610999999999997</v>
       </c>
       <c r="J13">
-        <v>5191.7120000000004</v>
+        <v>2332.4319999999998</v>
       </c>
       <c r="K13">
-        <v>389.435</v>
+        <v>313.447</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1141.473</v>
+        <v>627.37800000000004</v>
       </c>
       <c r="O13">
-        <v>10595.513999999999</v>
+        <v>4316.7960000000003</v>
       </c>
       <c r="P13">
-        <v>5694.808</v>
+        <v>2764.1170000000002</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-20.402000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>36799</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4632.9319999999998</v>
+        <v>1758.1579999999999</v>
       </c>
       <c r="U13">
-        <v>32.454000000000001</v>
+        <v>22.745999999999999</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>105.114</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-23.058</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-34.860999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>150.66499999999999</v>
+        <v>50.731000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>36891</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>59.692999999999998</v>
+        <v>38.107999999999997</v>
       </c>
       <c r="D14">
-        <v>706.24199999999996</v>
+        <v>332.29700000000003</v>
       </c>
       <c r="E14">
-        <v>423.82799999999997</v>
+        <v>185.27799999999999</v>
       </c>
       <c r="F14">
-        <v>394.24400000000003</v>
+        <v>182.02</v>
       </c>
       <c r="G14">
-        <v>571.80700000000002</v>
+        <v>277.69600000000003</v>
       </c>
       <c r="H14">
-        <v>15088.142</v>
+        <v>6134.7979999999998</v>
       </c>
       <c r="I14">
-        <v>264.11500000000001</v>
+        <v>52.447000000000003</v>
       </c>
       <c r="J14">
-        <v>5230.058</v>
+        <v>2271.165</v>
       </c>
       <c r="K14">
-        <v>630.30700000000002</v>
+        <v>412.17899999999997</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1235.5329999999999</v>
+        <v>774.05100000000004</v>
       </c>
       <c r="O14">
-        <v>10360.338</v>
+        <v>4412.4279999999999</v>
       </c>
       <c r="P14">
-        <v>5874.5389999999998</v>
+        <v>2844.739</v>
       </c>
       <c r="Q14">
-        <v>-5.49</v>
+        <v>5.8250000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>36891</v>
       </c>
       <c r="S14">
-        <v>6600</v>
+        <v>5050</v>
       </c>
       <c r="T14">
-        <v>4727.8040000000001</v>
+        <v>1722.37</v>
       </c>
       <c r="U14">
-        <v>26.963999999999999</v>
+        <v>28.571000000000002</v>
       </c>
       <c r="V14">
-        <v>207.48599999999999</v>
+        <v>102.084</v>
       </c>
       <c r="W14">
-        <v>-49.896000000000001</v>
+        <v>-22.855</v>
       </c>
       <c r="X14">
-        <v>120.95099999999999</v>
+        <v>34.076000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>59.692999999999998</v>
+        <v>38.107999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>36981</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>68.123000000000005</v>
+        <v>23.460999999999999</v>
       </c>
       <c r="D15">
-        <v>679.00300000000004</v>
+        <v>316.42700000000002</v>
       </c>
       <c r="E15">
-        <v>416.875</v>
+        <v>168.53800000000001</v>
       </c>
       <c r="F15">
-        <v>353.82299999999998</v>
+        <v>165.60400000000001</v>
       </c>
       <c r="G15">
-        <v>687.99400000000003</v>
+        <v>252.251</v>
       </c>
       <c r="H15">
-        <v>15274.821</v>
+        <v>6189.9380000000001</v>
       </c>
       <c r="I15">
-        <v>183.839</v>
+        <v>34.283000000000001</v>
       </c>
       <c r="J15">
-        <v>5224.6390000000001</v>
+        <v>2413.21</v>
       </c>
       <c r="K15">
-        <v>638.22699999999998</v>
+        <v>352.041</v>
       </c>
       <c r="L15">
-        <v>-221</v>
+        <v>-60.137999999999998</v>
       </c>
       <c r="M15">
-        <v>-2.1920000000000002</v>
+        <v>-57.828000000000003</v>
       </c>
       <c r="N15">
-        <v>1197.6990000000001</v>
+        <v>666.64800000000002</v>
       </c>
       <c r="O15">
-        <v>10473.734</v>
+        <v>4460.3119999999999</v>
       </c>
       <c r="P15">
-        <v>5877.7669999999998</v>
+        <v>2870.5610000000001</v>
       </c>
       <c r="Q15">
-        <v>3.7909999999999999</v>
+        <v>-8.3390000000000004</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>36981</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4801.0870000000004</v>
+        <v>1729.626</v>
       </c>
       <c r="U15">
-        <v>30.754999999999999</v>
+        <v>20.231999999999999</v>
       </c>
       <c r="V15">
-        <v>244.874</v>
+        <v>86.317999999999998</v>
       </c>
       <c r="W15">
-        <v>-49.968000000000004</v>
+        <v>-23.358000000000001</v>
       </c>
       <c r="X15">
-        <v>-35.883000000000003</v>
+        <v>17.077000000000002</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>68.123000000000005</v>
+        <v>23.460999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>37072</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>109.29900000000001</v>
+        <v>49.381</v>
       </c>
       <c r="D16">
-        <v>754.77800000000002</v>
+        <v>363.87799999999999</v>
       </c>
       <c r="E16">
-        <v>464.49299999999999</v>
+        <v>206.88800000000001</v>
       </c>
       <c r="F16">
-        <v>416.92899999999997</v>
+        <v>203.40199999999999</v>
       </c>
       <c r="G16">
-        <v>707.63499999999999</v>
+        <v>296.51600000000002</v>
       </c>
       <c r="H16">
-        <v>15426.447</v>
+        <v>6289.5780000000004</v>
       </c>
       <c r="I16">
-        <v>192.441</v>
+        <v>37.734999999999999</v>
       </c>
       <c r="J16">
-        <v>5233.5079999999998</v>
+        <v>2372.4879999999998</v>
       </c>
       <c r="K16">
-        <v>702.43799999999999</v>
+        <v>418.351</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1234.9110000000001</v>
+        <v>765.92399999999998</v>
       </c>
       <c r="O16">
-        <v>10553.321</v>
+        <v>4527.0389999999998</v>
       </c>
       <c r="P16">
-        <v>5950.9759999999997</v>
+        <v>2931.1460000000002</v>
       </c>
       <c r="Q16">
-        <v>1.3779999999999999</v>
+        <v>-2.46</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>37072</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4873.1260000000002</v>
+        <v>1762.539</v>
       </c>
       <c r="U16">
-        <v>32.133000000000003</v>
+        <v>17.771999999999998</v>
       </c>
       <c r="V16">
-        <v>205.74100000000001</v>
+        <v>38.454000000000001</v>
       </c>
       <c r="W16">
-        <v>-55.421999999999997</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>28.611000000000001</v>
+        <v>53.134</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>109.29900000000001</v>
+        <v>49.381</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>37164</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>152.185</v>
+        <v>55.777000000000001</v>
       </c>
       <c r="D17">
-        <v>846.16899999999998</v>
+        <v>394.95600000000002</v>
       </c>
       <c r="E17">
-        <v>476.73099999999999</v>
+        <v>225.084</v>
       </c>
       <c r="F17">
-        <v>504.82100000000003</v>
+        <v>228.066</v>
       </c>
       <c r="G17">
-        <v>756.96100000000001</v>
+        <v>335.36799999999999</v>
       </c>
       <c r="H17">
-        <v>15715.647000000001</v>
+        <v>6358.6750000000002</v>
       </c>
       <c r="I17">
-        <v>260.71300000000002</v>
+        <v>46.344000000000001</v>
       </c>
       <c r="J17">
-        <v>5556.6059999999998</v>
+        <v>2381.9160000000002</v>
       </c>
       <c r="K17">
-        <v>313.97899999999998</v>
+        <v>447.55599999999998</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1058.9349999999999</v>
+        <v>788.93399999999997</v>
       </c>
       <c r="O17">
-        <v>10795.995000000001</v>
+        <v>4561.6660000000002</v>
       </c>
       <c r="P17">
-        <v>5926.1660000000002</v>
+        <v>2909.1329999999998</v>
       </c>
       <c r="Q17">
-        <v>41.994999999999997</v>
+        <v>25.585000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>37164</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4919.652</v>
+        <v>1797.009</v>
       </c>
       <c r="U17">
-        <v>74.128</v>
+        <v>43.356999999999999</v>
       </c>
       <c r="V17">
-        <v>389.64699999999999</v>
+        <v>137.512</v>
       </c>
       <c r="W17">
-        <v>-55.457999999999998</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-64.484999999999999</v>
+        <v>-23.468</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>152.185</v>
+        <v>55.777000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>37256</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>93.393000000000001</v>
+        <v>32.863999999999997</v>
       </c>
       <c r="D18">
-        <v>731.05</v>
+        <v>363.62599999999998</v>
       </c>
       <c r="E18">
-        <v>453</v>
+        <v>188.30600000000001</v>
       </c>
       <c r="F18">
-        <v>400.42700000000002</v>
+        <v>177.26599999999999</v>
       </c>
       <c r="G18">
-        <v>575</v>
+        <v>330.58800000000002</v>
       </c>
       <c r="H18">
-        <v>16038</v>
+        <v>6607.0990000000002</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>67.995999999999995</v>
       </c>
       <c r="J18">
-        <v>5442</v>
+        <v>2550.0189999999998</v>
       </c>
       <c r="K18">
-        <v>450</v>
+        <v>414.08300000000003</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1241</v>
+        <v>824.73400000000004</v>
       </c>
       <c r="O18">
-        <v>11123</v>
+        <v>4799.6660000000002</v>
       </c>
       <c r="P18">
-        <v>5953</v>
+        <v>3130.1889999999999</v>
       </c>
       <c r="Q18">
-        <v>-51.164000000000001</v>
+        <v>-23.666</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>37256</v>
       </c>
       <c r="S18">
         <v>6400</v>
       </c>
       <c r="T18">
-        <v>4915</v>
+        <v>1807.433</v>
       </c>
       <c r="U18">
-        <v>23</v>
+        <v>19.690999999999999</v>
       </c>
       <c r="V18">
-        <v>256.738</v>
+        <v>65.328000000000003</v>
       </c>
       <c r="W18">
-        <v>-55.152000000000001</v>
+        <v>-23.641999999999999</v>
       </c>
       <c r="X18">
-        <v>-15.243</v>
+        <v>200.01499999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>93.393000000000001</v>
+        <v>32.863999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>37346</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>17.891999999999999</v>
       </c>
       <c r="D19">
-        <v>698</v>
+        <v>384.74</v>
       </c>
       <c r="E19">
-        <v>453.83</v>
+        <v>246.602</v>
       </c>
       <c r="F19">
-        <v>374</v>
+        <v>175.488</v>
       </c>
       <c r="G19">
-        <v>729.01900000000001</v>
+        <v>348.68400000000003</v>
       </c>
       <c r="H19">
-        <v>16263.531000000001</v>
+        <v>7643.0829999999996</v>
       </c>
       <c r="I19">
-        <v>203.40899999999999</v>
+        <v>45.656999999999996</v>
       </c>
       <c r="J19">
-        <v>5443.1970000000001</v>
+        <v>3518.6010000000001</v>
       </c>
       <c r="K19">
-        <v>544.53099999999995</v>
+        <v>416.596</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-4</v>
+        <v>-43.735999999999997</v>
       </c>
       <c r="N19">
-        <v>1227.548</v>
+        <v>868.07399999999996</v>
       </c>
       <c r="O19">
-        <v>11270.593000000001</v>
+        <v>5857.0420000000004</v>
       </c>
       <c r="P19">
-        <v>6048.8770000000004</v>
+        <v>4105.5110000000004</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>-4.18</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>37346</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4992.9380000000001</v>
+        <v>1786.0409999999999</v>
       </c>
       <c r="U19">
-        <v>24.294</v>
+        <v>15.510999999999999</v>
       </c>
       <c r="V19">
-        <v>198</v>
+        <v>93.256</v>
       </c>
       <c r="W19">
-        <v>-56</v>
+        <v>-24.651</v>
       </c>
       <c r="X19">
-        <v>49</v>
+        <v>851.274</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>80</v>
+        <v>17.891999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>37437</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>123</v>
+        <v>66.665000000000006</v>
       </c>
       <c r="D20">
-        <v>782</v>
+        <v>424.01400000000001</v>
       </c>
       <c r="E20">
-        <v>511.024</v>
+        <v>271.04899999999998</v>
       </c>
       <c r="F20">
-        <v>446</v>
+        <v>201.715</v>
       </c>
       <c r="G20">
-        <v>890.08500000000004</v>
+        <v>390.48700000000002</v>
       </c>
       <c r="H20">
-        <v>16732.331999999999</v>
+        <v>7524.9319999999998</v>
       </c>
       <c r="I20">
-        <v>283.57</v>
+        <v>61.302999999999997</v>
       </c>
       <c r="J20">
-        <v>5447.53</v>
+        <v>3380.3209999999999</v>
       </c>
       <c r="K20">
-        <v>820.98199999999997</v>
+        <v>290.16199999999998</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1512.1880000000001</v>
+        <v>868.53599999999994</v>
       </c>
       <c r="O20">
-        <v>11678.941999999999</v>
+        <v>5697.192</v>
       </c>
       <c r="P20">
-        <v>6330.4740000000002</v>
+        <v>3914.6410000000001</v>
       </c>
       <c r="Q20">
-        <v>121</v>
+        <v>8.968</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>37437</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5053.3900000000003</v>
+        <v>1827.74</v>
       </c>
       <c r="U20">
-        <v>144.75200000000001</v>
+        <v>24.478999999999999</v>
       </c>
       <c r="V20">
-        <v>220</v>
+        <v>64.298000000000002</v>
       </c>
       <c r="W20">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>222</v>
+        <v>-97.25</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>123</v>
+        <v>66.665000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>37529</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>174</v>
+        <v>55.188000000000002</v>
       </c>
       <c r="D21">
-        <v>896</v>
+        <v>483.45699999999999</v>
       </c>
       <c r="E21">
-        <v>594.66999999999996</v>
+        <v>229.9</v>
       </c>
       <c r="F21">
-        <v>532</v>
+        <v>240.50200000000001</v>
       </c>
       <c r="G21">
-        <v>879.00900000000001</v>
+        <v>409.25400000000002</v>
       </c>
       <c r="H21">
-        <v>17105.172999999999</v>
+        <v>7614.5720000000001</v>
       </c>
       <c r="I21">
-        <v>281.291</v>
+        <v>48.567</v>
       </c>
       <c r="J21">
-        <v>5954.9009999999998</v>
+        <v>3467.7629999999999</v>
       </c>
       <c r="K21">
-        <v>379.94400000000002</v>
+        <v>196.965</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1165.3869999999999</v>
+        <v>801.03300000000002</v>
       </c>
       <c r="O21">
-        <v>11939.721</v>
+        <v>5757.3320000000003</v>
       </c>
       <c r="P21">
-        <v>6356.8680000000004</v>
+        <v>3950.23</v>
       </c>
       <c r="Q21">
-        <v>-70</v>
+        <v>15.552</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>37529</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5165.4520000000002</v>
+        <v>1857.24</v>
       </c>
       <c r="U21">
-        <v>75.224000000000004</v>
+        <v>40.030999999999999</v>
       </c>
       <c r="V21">
-        <v>438</v>
+        <v>105.702</v>
       </c>
       <c r="W21">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-30</v>
+        <v>21.625</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>174</v>
+        <v>55.188000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>37621</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>99</v>
+        <v>7.319</v>
       </c>
       <c r="D22">
-        <v>783</v>
+        <v>422.96199999999999</v>
       </c>
       <c r="E22">
-        <v>522</v>
+        <v>200.56700000000001</v>
       </c>
       <c r="F22">
-        <v>417</v>
+        <v>170.279</v>
       </c>
       <c r="G22">
-        <v>657</v>
+        <v>363.69799999999998</v>
       </c>
       <c r="H22">
-        <v>17241</v>
+        <v>7718.3829999999998</v>
       </c>
       <c r="I22">
-        <v>126</v>
+        <v>51.460999999999999</v>
       </c>
       <c r="J22">
-        <v>5875</v>
+        <v>3470.7510000000002</v>
       </c>
       <c r="K22">
-        <v>628</v>
+        <v>394.71199999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1533</v>
+        <v>843.78499999999997</v>
       </c>
       <c r="O22">
-        <v>12192</v>
+        <v>5882.6040000000003</v>
       </c>
       <c r="P22">
-        <v>6557</v>
+        <v>4063.3009999999999</v>
       </c>
       <c r="Q22">
-        <v>-30</v>
+        <v>-12.528</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>37621</v>
       </c>
       <c r="S22">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>5049</v>
+        <v>1835.779</v>
       </c>
       <c r="U22">
-        <v>45</v>
+        <v>27.503</v>
       </c>
       <c r="V22">
-        <v>323</v>
+        <v>49.677</v>
       </c>
       <c r="W22">
-        <v>-61</v>
+        <v>-24.515999999999998</v>
       </c>
       <c r="X22">
-        <v>67</v>
+        <v>144.18199999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>99</v>
+        <v>7.319</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>14.929</v>
       </c>
       <c r="D23">
-        <v>743</v>
+        <v>503.84550000000002</v>
       </c>
       <c r="E23">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>395</v>
+        <v>222.80950000000001</v>
       </c>
       <c r="G23">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>17417</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5864</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>839</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1614</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12335</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6757</v>
+        <v>5030.0780000000004</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>-20.805</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5082</v>
+        <v>4583.9780000000001</v>
       </c>
       <c r="U23">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>260</v>
+        <v>33.361499999999999</v>
       </c>
       <c r="W23">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>84</v>
+        <v>66.695499999999996</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>82</v>
+        <v>14.929</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>137</v>
+        <v>14.929</v>
       </c>
       <c r="D24">
-        <v>827</v>
+        <v>503.84550000000002</v>
       </c>
       <c r="E24">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>476</v>
+        <v>222.80950000000001</v>
       </c>
       <c r="G24">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>17706</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1740</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>12553</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>6884</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-14</v>
+        <v>-20.805</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5153</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>276</v>
+        <v>33.361499999999999</v>
       </c>
       <c r="W24">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>52</v>
+        <v>66.695499999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>137</v>
+        <v>14.929</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>17971</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5879</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1928</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12733</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>6883</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>101</v>
+        <v>-235.28700000000001</v>
       </c>
       <c r="D26">
-        <v>802</v>
+        <v>492.69200000000001</v>
       </c>
       <c r="E26">
-        <v>532</v>
+        <v>281.02800000000002</v>
       </c>
       <c r="F26">
-        <v>508</v>
+        <v>221.17500000000001</v>
       </c>
       <c r="G26">
-        <v>784</v>
+        <v>412.44099999999997</v>
       </c>
       <c r="H26">
-        <v>18482</v>
+        <v>12783.058999999999</v>
       </c>
       <c r="I26">
-        <v>154</v>
+        <v>140.691</v>
       </c>
       <c r="J26">
-        <v>5759</v>
+        <v>3096.404</v>
       </c>
       <c r="K26">
-        <v>849</v>
+        <v>719.745</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2392</v>
+        <v>1363.662</v>
       </c>
       <c r="O26">
-        <v>13264</v>
+        <v>7186.6189999999997</v>
       </c>
       <c r="P26">
-        <v>7182</v>
+        <v>4103.5320000000002</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>4.4260000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="T26">
-        <v>5218</v>
+        <v>5596.44</v>
       </c>
       <c r="U26">
-        <v>75</v>
+        <v>29.754000000000001</v>
       </c>
       <c r="V26">
-        <v>344</v>
+        <v>63.825000000000003</v>
       </c>
       <c r="W26">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>258</v>
+        <v>182.535</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>101</v>
+        <v>-235.28700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>93</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="D27">
-        <v>756</v>
+        <v>468.54399999999998</v>
       </c>
       <c r="E27">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>422</v>
+        <v>185.93100000000001</v>
       </c>
       <c r="G27">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>18610</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>5753</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-555.57799999999997</v>
       </c>
       <c r="M27">
-        <v>-4</v>
+        <v>-266.553</v>
       </c>
       <c r="N27">
-        <v>2418</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>13323</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>7307</v>
+        <v>4103.5320000000002</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>244.00899999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5287</v>
+        <v>5596.44</v>
       </c>
       <c r="U27">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>277</v>
+        <v>54.210999999999999</v>
       </c>
       <c r="W27">
-        <v>-67</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>14</v>
+        <v>355.01499999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>93</v>
+        <v>2.6850000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>131</v>
+        <v>49.177999999999997</v>
       </c>
       <c r="D28">
-        <v>844</v>
+        <v>558.73299999999995</v>
       </c>
       <c r="E28">
-        <v>524</v>
+        <v>287.62799999999999</v>
       </c>
       <c r="F28">
-        <v>497</v>
+        <v>259.34800000000001</v>
       </c>
       <c r="G28">
-        <v>808</v>
+        <v>491.995</v>
       </c>
       <c r="H28">
-        <v>18966</v>
+        <v>13071.584999999999</v>
       </c>
       <c r="I28">
-        <v>134</v>
+        <v>109.111</v>
       </c>
       <c r="J28">
-        <v>5659</v>
+        <v>3335.5790000000002</v>
       </c>
       <c r="K28">
-        <v>1117</v>
+        <v>141.167</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2661</v>
+        <v>626.45799999999997</v>
       </c>
       <c r="O28">
-        <v>13582</v>
+        <v>6772.5690000000004</v>
       </c>
       <c r="P28">
-        <v>7462</v>
+        <v>3588.8209999999999</v>
       </c>
       <c r="Q28">
-        <v>-12</v>
+        <v>-222.31800000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="T28">
-        <v>5384</v>
+        <v>6299.0159999999996</v>
       </c>
       <c r="U28">
-        <v>64</v>
+        <v>51.445</v>
       </c>
       <c r="V28">
-        <v>247</v>
+        <v>81.97</v>
       </c>
       <c r="W28">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>91</v>
+        <v>-190.06399999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>131</v>
+        <v>49.177999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>203</v>
+        <v>-160.11699999999999</v>
       </c>
       <c r="D29">
-        <v>936</v>
+        <v>633.11699999999996</v>
       </c>
       <c r="E29">
-        <v>546</v>
+        <v>314.73899999999998</v>
       </c>
       <c r="F29">
-        <v>592</v>
+        <v>304.81200000000001</v>
       </c>
       <c r="G29">
-        <v>860</v>
+        <v>616.75</v>
       </c>
       <c r="H29">
-        <v>19361</v>
+        <v>13089.837</v>
       </c>
       <c r="I29">
-        <v>144</v>
+        <v>124.17100000000001</v>
       </c>
       <c r="J29">
-        <v>6683</v>
+        <v>5030.201</v>
       </c>
       <c r="K29">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1747</v>
+        <v>719.58900000000006</v>
       </c>
       <c r="O29">
-        <v>13843</v>
+        <v>8550.3369999999995</v>
       </c>
       <c r="P29">
-        <v>7473</v>
+        <v>5282.4110000000001</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>99.813999999999993</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="T29">
-        <v>5518</v>
+        <v>4539.5</v>
       </c>
       <c r="U29">
-        <v>93</v>
+        <v>151.25899999999999</v>
       </c>
       <c r="V29">
-        <v>496</v>
+        <v>193.732</v>
       </c>
       <c r="W29">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-86</v>
+        <v>109.59099999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>203</v>
+        <v>-160.11699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>-234.572</v>
       </c>
       <c r="D30">
-        <v>821</v>
+        <v>553.82100000000003</v>
       </c>
       <c r="E30">
-        <v>484</v>
+        <v>300.73599999999999</v>
       </c>
       <c r="F30">
-        <v>455</v>
+        <v>239.631</v>
       </c>
       <c r="G30">
-        <v>720</v>
+        <v>430.35399999999998</v>
       </c>
       <c r="H30">
-        <v>19482</v>
+        <v>12951.326999999999</v>
       </c>
       <c r="I30">
-        <v>195</v>
+        <v>168.886</v>
       </c>
       <c r="J30">
-        <v>6497</v>
+        <v>4699.1329999999998</v>
       </c>
       <c r="K30">
-        <v>905</v>
+        <v>220.51400000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,120 +3216,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2325</v>
+        <v>774.48900000000003</v>
       </c>
       <c r="O30">
-        <v>14097</v>
+        <v>8404.7129999999997</v>
       </c>
       <c r="P30">
-        <v>7728</v>
+        <v>5016.1019999999999</v>
       </c>
       <c r="Q30">
-        <v>-39</v>
+        <v>-137.77799999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="T30">
-        <v>5385</v>
+        <v>4546.6139999999996</v>
       </c>
       <c r="U30">
-        <v>55</v>
+        <v>13.481</v>
       </c>
       <c r="V30">
-        <v>429</v>
+        <v>143.79900000000001</v>
       </c>
       <c r="W30">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>188</v>
+        <v>-17.949000000000002</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-234.572</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>106</v>
+        <v>-732.48400000000004</v>
       </c>
       <c r="D31">
-        <v>761</v>
+        <v>506.815</v>
       </c>
       <c r="E31">
-        <v>461</v>
+        <v>303.928</v>
       </c>
       <c r="F31">
-        <v>414</v>
+        <v>195.554</v>
       </c>
       <c r="G31">
-        <v>729</v>
+        <v>414.87400000000002</v>
       </c>
       <c r="H31">
-        <v>19728</v>
+        <v>12268.004000000001</v>
       </c>
       <c r="I31">
-        <v>133</v>
+        <v>119.209</v>
       </c>
       <c r="J31">
-        <v>6403</v>
+        <v>4642.3149999999996</v>
       </c>
       <c r="K31">
-        <v>1183</v>
+        <v>368.137</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-19.117000000000001</v>
       </c>
       <c r="M31">
-        <v>-6</v>
+        <v>-35.914999999999999</v>
       </c>
       <c r="N31">
-        <v>2539</v>
+        <v>871.47400000000005</v>
       </c>
       <c r="O31">
-        <v>14277</v>
+        <v>8429.7170000000006</v>
       </c>
       <c r="P31">
-        <v>8007</v>
+        <v>5100.6400000000003</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>-4.2789999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>5451</v>
+        <v>3838.2869999999998</v>
       </c>
       <c r="U31">
-        <v>55</v>
+        <v>9.202</v>
       </c>
       <c r="V31">
-        <v>219</v>
+        <v>85.391000000000005</v>
       </c>
       <c r="W31">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>166</v>
+        <v>98.034999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>106</v>
+        <v>-732.48400000000004</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>45.497999999999998</v>
       </c>
       <c r="D32">
-        <v>853</v>
+        <v>589.36900000000003</v>
       </c>
       <c r="E32">
-        <v>536</v>
+        <v>344.31299999999999</v>
       </c>
       <c r="F32">
-        <v>485</v>
+        <v>264.57299999999998</v>
       </c>
       <c r="G32">
-        <v>833</v>
+        <v>458.67200000000003</v>
       </c>
       <c r="H32">
-        <v>20471</v>
+        <v>12526.682000000001</v>
       </c>
       <c r="I32">
-        <v>139</v>
+        <v>137.303</v>
       </c>
       <c r="J32">
-        <v>6352</v>
+        <v>4696.26</v>
       </c>
       <c r="K32">
-        <v>1649</v>
+        <v>243.41800000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2951</v>
+        <v>741.23900000000003</v>
       </c>
       <c r="O32">
-        <v>14735</v>
+        <v>8394.8870000000006</v>
       </c>
       <c r="P32">
-        <v>8368</v>
+        <v>5020.2120000000004</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>-3.2879999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>5736</v>
+        <v>4131.7950000000001</v>
       </c>
       <c r="U32">
-        <v>68</v>
+        <v>5.9139999999999997</v>
       </c>
       <c r="V32">
-        <v>306</v>
+        <v>55.884</v>
       </c>
       <c r="W32">
-        <v>-81</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>472</v>
+        <v>180.73699999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>162</v>
+        <v>45.497999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>187</v>
+        <v>88.158000000000001</v>
       </c>
       <c r="D33">
-        <v>976</v>
+        <v>672.19299999999998</v>
       </c>
       <c r="E33">
-        <v>550</v>
+        <v>378.88600000000002</v>
       </c>
       <c r="F33">
-        <v>586</v>
+        <v>335.815</v>
       </c>
       <c r="G33">
-        <v>800</v>
+        <v>497.22399999999999</v>
       </c>
       <c r="H33">
-        <v>20880</v>
+        <v>12780.732</v>
       </c>
       <c r="I33">
-        <v>141</v>
+        <v>160.518</v>
       </c>
       <c r="J33">
-        <v>7577</v>
+        <v>4669.5020000000004</v>
       </c>
       <c r="K33">
-        <v>564</v>
+        <v>327.185</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1748</v>
+        <v>937.49</v>
       </c>
       <c r="O33">
-        <v>15020</v>
+        <v>8589.6010000000006</v>
       </c>
       <c r="P33">
-        <v>8404</v>
+        <v>5092.5230000000001</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>5860</v>
+        <v>4191.1310000000003</v>
       </c>
       <c r="U33">
-        <v>86</v>
+        <v>6.6890000000000001</v>
       </c>
       <c r="V33">
-        <v>467</v>
+        <v>251.63800000000001</v>
       </c>
       <c r="W33">
-        <v>-82</v>
+        <v>-31.992000000000001</v>
       </c>
       <c r="X33">
-        <v>-52</v>
+        <v>45.097000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>187</v>
+        <v>88.158000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>112</v>
+        <v>36.406999999999996</v>
       </c>
       <c r="D34">
-        <v>850</v>
+        <v>568.55100000000004</v>
       </c>
       <c r="E34">
-        <v>487</v>
+        <v>305.75200000000001</v>
       </c>
       <c r="F34">
-        <v>456</v>
+        <v>254.01400000000001</v>
       </c>
       <c r="G34">
-        <v>781</v>
+        <v>417.67500000000001</v>
       </c>
       <c r="H34">
-        <v>21223</v>
+        <v>13231.817999999999</v>
       </c>
       <c r="I34">
-        <v>175</v>
+        <v>149.79499999999999</v>
       </c>
       <c r="J34">
-        <v>7575</v>
+        <v>4648.2129999999997</v>
       </c>
       <c r="K34">
-        <v>964</v>
+        <v>479.01</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2094</v>
+        <v>1104.76</v>
       </c>
       <c r="O34">
-        <v>15359</v>
+        <v>9125.26</v>
       </c>
       <c r="P34">
-        <v>8625</v>
+        <v>5303.0450000000001</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>2.8530000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="T34">
-        <v>5864</v>
+        <v>4106.558</v>
       </c>
       <c r="U34">
-        <v>130</v>
+        <v>9.5419999999999998</v>
       </c>
       <c r="V34">
-        <v>394</v>
+        <v>159.256</v>
       </c>
       <c r="W34">
-        <v>-82</v>
+        <v>-32.063000000000002</v>
       </c>
       <c r="X34">
-        <v>140</v>
+        <v>153.69</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>112</v>
+        <v>36.406999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>113</v>
+        <v>-413.07900000000001</v>
       </c>
       <c r="D35">
-        <v>813</v>
+        <v>550.16999999999996</v>
       </c>
       <c r="E35">
-        <v>477</v>
+        <v>321.25799999999998</v>
       </c>
       <c r="F35">
-        <v>448</v>
+        <v>235.768</v>
       </c>
       <c r="G35">
-        <v>691</v>
+        <v>420.58800000000002</v>
       </c>
       <c r="H35">
-        <v>21464</v>
+        <v>12907.244000000001</v>
       </c>
       <c r="I35">
-        <v>130</v>
+        <v>115.066</v>
       </c>
       <c r="J35">
-        <v>7568</v>
+        <v>4683.9589999999998</v>
       </c>
       <c r="K35">
-        <v>1201</v>
+        <v>645.09199999999998</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-23.858000000000001</v>
       </c>
       <c r="M35">
-        <v>-12</v>
+        <v>-150.45099999999999</v>
       </c>
       <c r="N35">
-        <v>2156</v>
+        <v>1169.2080000000001</v>
       </c>
       <c r="O35">
-        <v>15532</v>
+        <v>9242.3459999999995</v>
       </c>
       <c r="P35">
-        <v>8985</v>
+        <v>5391.55</v>
       </c>
       <c r="Q35">
-        <v>-73</v>
+        <v>-1.026</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>5932</v>
+        <v>3664.8980000000001</v>
       </c>
       <c r="U35">
-        <v>63</v>
+        <v>8.516</v>
       </c>
       <c r="V35">
-        <v>168</v>
+        <v>142.499</v>
       </c>
       <c r="W35">
-        <v>-82</v>
+        <v>-32.072000000000003</v>
       </c>
       <c r="X35">
-        <v>110</v>
+        <v>58.756</v>
       </c>
       <c r="Y35">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>113</v>
+        <v>-413.07900000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>170</v>
+        <v>51.988999999999997</v>
       </c>
       <c r="D36">
-        <v>882</v>
+        <v>612.74</v>
       </c>
       <c r="E36">
-        <v>516</v>
+        <v>357.69400000000002</v>
       </c>
       <c r="F36">
-        <v>510</v>
+        <v>287.45699999999999</v>
       </c>
       <c r="G36">
-        <v>741</v>
+        <v>495.70499999999998</v>
       </c>
       <c r="H36">
-        <v>21854</v>
+        <v>13190.049000000001</v>
       </c>
       <c r="I36">
-        <v>140</v>
+        <v>123.116</v>
       </c>
       <c r="J36">
-        <v>8648</v>
+        <v>5006.0659999999998</v>
       </c>
       <c r="K36">
-        <v>397</v>
+        <v>268.75099999999998</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1317</v>
+        <v>792.78700000000003</v>
       </c>
       <c r="O36">
-        <v>15827</v>
+        <v>9257.2860000000001</v>
       </c>
       <c r="P36">
-        <v>9178</v>
+        <v>5372.174</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0.496</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>6027</v>
+        <v>3932.7629999999999</v>
       </c>
       <c r="U36">
-        <v>64</v>
+        <v>9.0120000000000005</v>
       </c>
       <c r="V36">
-        <v>312</v>
+        <v>86.209000000000003</v>
       </c>
       <c r="W36">
-        <v>-91</v>
+        <v>-31.934000000000001</v>
       </c>
       <c r="X36">
-        <v>155</v>
+        <v>69.111000000000004</v>
       </c>
       <c r="Y36">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>170</v>
+        <v>51.988999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>240</v>
+        <v>91.635999999999996</v>
       </c>
       <c r="D37">
-        <v>1013</v>
+        <v>679.95600000000002</v>
       </c>
       <c r="E37">
-        <v>522</v>
+        <v>369.892</v>
       </c>
       <c r="F37">
-        <v>618</v>
+        <v>344.887</v>
       </c>
       <c r="G37">
-        <v>799</v>
+        <v>516.471</v>
       </c>
       <c r="H37">
-        <v>22238</v>
+        <v>13345.709000000001</v>
       </c>
       <c r="I37">
-        <v>149</v>
+        <v>119.271</v>
       </c>
       <c r="J37">
-        <v>8646</v>
+        <v>5221.7349999999997</v>
       </c>
       <c r="K37">
-        <v>474</v>
+        <v>76.555999999999997</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1488</v>
+        <v>600.63099999999997</v>
       </c>
       <c r="O37">
-        <v>16048</v>
+        <v>9353.9</v>
       </c>
       <c r="P37">
-        <v>9254</v>
+        <v>5352.616</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>-1.181</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6190</v>
+        <v>3991.8090000000002</v>
       </c>
       <c r="U37">
-        <v>94</v>
+        <v>7.8310000000000004</v>
       </c>
       <c r="V37">
-        <v>465</v>
+        <v>242.84299999999999</v>
       </c>
       <c r="W37">
-        <v>-90</v>
+        <v>-36.658000000000001</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>-74.918000000000006</v>
       </c>
       <c r="Y37">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>240</v>
+        <v>91.635999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>98</v>
+        <v>36.371000000000002</v>
       </c>
       <c r="D38">
-        <v>902</v>
+        <v>597.83699999999999</v>
       </c>
       <c r="E38">
-        <v>466</v>
+        <v>306.43</v>
       </c>
       <c r="F38">
-        <v>490</v>
+        <v>306.28899999999999</v>
       </c>
       <c r="G38">
-        <v>1285</v>
+        <v>499.12700000000001</v>
       </c>
       <c r="H38">
-        <v>22682</v>
+        <v>13452.651</v>
       </c>
       <c r="I38">
-        <v>203</v>
+        <v>138.60900000000001</v>
       </c>
       <c r="J38">
-        <v>8643</v>
+        <v>5312.1260000000002</v>
       </c>
       <c r="K38">
-        <v>786</v>
+        <v>119.497</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2045</v>
+        <v>607.39200000000005</v>
       </c>
       <c r="O38">
-        <v>16561</v>
+        <v>9447.2350000000006</v>
       </c>
       <c r="P38">
-        <v>9547</v>
+        <v>5485.6909999999998</v>
       </c>
       <c r="Q38">
-        <v>-25</v>
+        <v>14.425000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>6800</v>
+        <v>7700</v>
       </c>
       <c r="T38">
-        <v>6121</v>
+        <v>4005.4160000000002</v>
       </c>
       <c r="U38">
-        <v>60</v>
+        <v>22.256</v>
       </c>
       <c r="V38">
-        <v>438</v>
+        <v>124.605</v>
       </c>
       <c r="W38">
-        <v>-90</v>
+        <v>-36.667000000000002</v>
       </c>
       <c r="X38">
-        <v>228</v>
+        <v>67.22</v>
       </c>
       <c r="Y38">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>98</v>
+        <v>36.371000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>124</v>
+        <v>30.808</v>
       </c>
       <c r="D39">
-        <v>844</v>
+        <v>558.02</v>
       </c>
       <c r="E39">
-        <v>464</v>
+        <v>318.505</v>
       </c>
       <c r="F39">
-        <v>461</v>
+        <v>257.43700000000001</v>
       </c>
       <c r="G39">
-        <v>1801</v>
+        <v>497.22800000000001</v>
       </c>
       <c r="H39">
-        <v>23546</v>
+        <v>13540.562</v>
       </c>
       <c r="I39">
-        <v>152</v>
+        <v>116.843</v>
       </c>
       <c r="J39">
-        <v>8625</v>
+        <v>5280.902</v>
       </c>
       <c r="K39">
-        <v>1641</v>
+        <v>147.893</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-25.196000000000002</v>
       </c>
       <c r="M39">
-        <v>-6</v>
+        <v>-38.000999999999998</v>
       </c>
       <c r="N39">
-        <v>2767</v>
+        <v>661.08900000000006</v>
       </c>
       <c r="O39">
-        <v>17303</v>
+        <v>9537.0709999999999</v>
       </c>
       <c r="P39">
-        <v>10420</v>
+        <v>5475.8220000000001</v>
       </c>
       <c r="Q39">
-        <v>498</v>
+        <v>-9.6229999999999993</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6243</v>
+        <v>4003.491</v>
       </c>
       <c r="U39">
-        <v>556</v>
+        <v>12.632999999999999</v>
       </c>
       <c r="V39">
-        <v>180</v>
+        <v>175.99</v>
       </c>
       <c r="W39">
-        <v>-90</v>
+        <v>-36.679000000000002</v>
       </c>
       <c r="X39">
-        <v>768</v>
+        <v>-47.831000000000003</v>
       </c>
       <c r="Y39">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>124</v>
+        <v>30.808</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>176</v>
+        <v>72.751000000000005</v>
       </c>
       <c r="D40">
-        <v>931</v>
+        <v>634.91</v>
       </c>
       <c r="E40">
-        <v>505</v>
+        <v>384.60899999999998</v>
       </c>
       <c r="F40">
-        <v>540</v>
+        <v>320.89400000000001</v>
       </c>
       <c r="G40">
-        <v>1896</v>
+        <v>590.11300000000006</v>
       </c>
       <c r="H40">
-        <v>24009</v>
+        <v>13773.516</v>
       </c>
       <c r="I40">
-        <v>169</v>
+        <v>147.57300000000001</v>
       </c>
       <c r="J40">
-        <v>9593</v>
+        <v>5329.1049999999996</v>
       </c>
       <c r="K40">
-        <v>920</v>
+        <v>265.80700000000002</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2113</v>
+        <v>753.43700000000001</v>
       </c>
       <c r="O40">
-        <v>17671</v>
+        <v>9729.65</v>
       </c>
       <c r="P40">
-        <v>10676</v>
+        <v>5638.93</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>7.9770000000000003</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>6338</v>
+        <v>4043.866</v>
       </c>
       <c r="U40">
-        <v>569</v>
+        <v>20.61</v>
       </c>
       <c r="V40">
-        <v>351</v>
+        <v>121.51900000000001</v>
       </c>
       <c r="W40">
-        <v>-100</v>
+        <v>-36.689</v>
       </c>
       <c r="X40">
-        <v>173</v>
+        <v>79.902000000000001</v>
       </c>
       <c r="Y40">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>176</v>
+        <v>72.751000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>264</v>
+        <v>124.114</v>
       </c>
       <c r="D41">
-        <v>1079</v>
+        <v>748.95299999999997</v>
       </c>
       <c r="E41">
-        <v>559</v>
+        <v>412.77</v>
       </c>
       <c r="F41">
-        <v>660</v>
+        <v>402.77300000000002</v>
       </c>
       <c r="G41">
-        <v>1967</v>
+        <v>627.399</v>
       </c>
       <c r="H41">
-        <v>24394</v>
+        <v>13983.674999999999</v>
       </c>
       <c r="I41">
-        <v>162</v>
+        <v>166.38800000000001</v>
       </c>
       <c r="J41">
-        <v>9584</v>
+        <v>5395.35</v>
       </c>
       <c r="K41">
-        <v>1044</v>
+        <v>181.84100000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2260</v>
+        <v>741.42399999999998</v>
       </c>
       <c r="O41">
-        <v>17882</v>
+        <v>9847.9220000000005</v>
       </c>
       <c r="P41">
-        <v>10789</v>
+        <v>5621.1750000000002</v>
       </c>
       <c r="Q41">
-        <v>-6</v>
+        <v>2.891</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>6512</v>
+        <v>4135.7529999999997</v>
       </c>
       <c r="U41">
-        <v>560</v>
+        <v>23.501000000000001</v>
       </c>
       <c r="V41">
-        <v>457</v>
+        <v>289.51799999999997</v>
       </c>
       <c r="W41">
-        <v>-100</v>
+        <v>-38.457000000000001</v>
       </c>
       <c r="X41">
-        <v>25</v>
+        <v>-111.901</v>
       </c>
       <c r="Y41">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>264</v>
+        <v>124.114</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>40.154000000000003</v>
+      </c>
+      <c r="D42">
+        <v>613.15200000000004</v>
+      </c>
+      <c r="E42">
+        <v>308.76400000000001</v>
+      </c>
+      <c r="F42">
+        <v>285.69</v>
+      </c>
+      <c r="G42">
+        <v>1457.7750000000001</v>
+      </c>
+      <c r="H42">
+        <v>14086.245999999999</v>
+      </c>
+      <c r="I42">
+        <v>188.34299999999999</v>
+      </c>
+      <c r="J42">
+        <v>5417.1679999999997</v>
+      </c>
+      <c r="K42">
+        <v>228.905</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1106.7639999999999</v>
+      </c>
+      <c r="O42">
+        <v>9953.9740000000002</v>
+      </c>
+      <c r="P42">
+        <v>5682.165</v>
+      </c>
+      <c r="Q42">
+        <v>-10.388999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>7600</v>
+      </c>
+      <c r="T42">
+        <v>4132.2719999999999</v>
+      </c>
+      <c r="U42">
+        <v>13.112</v>
+      </c>
+      <c r="V42">
+        <v>187.90600000000001</v>
+      </c>
+      <c r="W42">
+        <v>-38.475999999999999</v>
+      </c>
+      <c r="X42">
+        <v>42.496000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>40.154000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>26.233000000000001</v>
+      </c>
+      <c r="D43">
+        <v>596.71500000000003</v>
+      </c>
+      <c r="E43">
+        <v>251.941</v>
+      </c>
+      <c r="F43">
+        <v>285.89400000000001</v>
+      </c>
+      <c r="G43">
+        <v>1305.539</v>
+      </c>
+      <c r="H43">
+        <v>14128.807000000001</v>
+      </c>
+      <c r="I43">
+        <v>132.72499999999999</v>
+      </c>
+      <c r="J43">
+        <v>5387.643</v>
+      </c>
+      <c r="K43">
+        <v>323.48399999999998</v>
+      </c>
+      <c r="L43">
+        <v>-40.527999999999999</v>
+      </c>
+      <c r="M43">
+        <v>-62.637</v>
+      </c>
+      <c r="N43">
+        <v>1134.8800000000001</v>
+      </c>
+      <c r="O43">
+        <v>9978.1530000000002</v>
+      </c>
+      <c r="P43">
+        <v>5723.2950000000001</v>
+      </c>
+      <c r="Q43">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4150.6540000000005</v>
+      </c>
+      <c r="U43">
+        <v>13.528</v>
+      </c>
+      <c r="V43">
+        <v>161.52600000000001</v>
+      </c>
+      <c r="W43">
+        <v>-38.524999999999999</v>
+      </c>
+      <c r="X43">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>26.233000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>81.11</v>
+      </c>
+      <c r="D44">
+        <v>668.87300000000005</v>
+      </c>
+      <c r="E44">
+        <v>294.56900000000002</v>
+      </c>
+      <c r="F44">
+        <v>341.71600000000001</v>
+      </c>
+      <c r="G44">
+        <v>1493.2139999999999</v>
+      </c>
+      <c r="H44">
+        <v>14347.216</v>
+      </c>
+      <c r="I44">
+        <v>159.024</v>
+      </c>
+      <c r="J44">
+        <v>5384.7269999999999</v>
+      </c>
+      <c r="K44">
+        <v>449.94</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1327.646</v>
+      </c>
+      <c r="O44">
+        <v>10184.749</v>
+      </c>
+      <c r="P44">
+        <v>5843.1059999999998</v>
+      </c>
+      <c r="Q44">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4162.4669999999996</v>
+      </c>
+      <c r="U44">
+        <v>13.465999999999999</v>
+      </c>
+      <c r="V44">
+        <v>100.87</v>
+      </c>
+      <c r="W44">
+        <v>-38.58</v>
+      </c>
+      <c r="X44">
+        <v>108.30500000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>81.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>137.422</v>
+      </c>
+      <c r="D45">
+        <v>760.86900000000003</v>
+      </c>
+      <c r="E45">
+        <v>309.11099999999999</v>
+      </c>
+      <c r="F45">
+        <v>420.53</v>
+      </c>
+      <c r="G45">
+        <v>1479.461</v>
+      </c>
+      <c r="H45">
+        <v>14538.733</v>
+      </c>
+      <c r="I45">
+        <v>190.55600000000001</v>
+      </c>
+      <c r="J45">
+        <v>5383.5150000000003</v>
+      </c>
+      <c r="K45">
+        <v>408.99799999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1380.0139999999999</v>
+      </c>
+      <c r="O45">
+        <v>10275.543</v>
+      </c>
+      <c r="P45">
+        <v>5801.4620000000004</v>
+      </c>
+      <c r="Q45">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>4263.1899999999996</v>
+      </c>
+      <c r="U45">
+        <v>15.621</v>
+      </c>
+      <c r="V45">
+        <v>313.64800000000002</v>
+      </c>
+      <c r="W45">
+        <v>-40.357999999999997</v>
+      </c>
+      <c r="X45">
+        <v>-80.917000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>137.422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>64.847999999999999</v>
+      </c>
+      <c r="D46">
+        <v>639.779</v>
+      </c>
+      <c r="E46">
+        <v>366.82799999999997</v>
+      </c>
+      <c r="F46">
+        <v>331.92099999999999</v>
+      </c>
+      <c r="G46">
+        <v>1397.6590000000001</v>
+      </c>
+      <c r="H46">
+        <v>14776.391</v>
+      </c>
+      <c r="I46">
+        <v>243.709</v>
+      </c>
+      <c r="J46">
+        <v>5361.0839999999998</v>
+      </c>
+      <c r="K46">
+        <v>515.04999999999995</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1489.105</v>
+      </c>
+      <c r="O46">
+        <v>10536.007</v>
+      </c>
+      <c r="P46">
+        <v>5904.9920000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-1.4139999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>7000</v>
+      </c>
+      <c r="T46">
+        <v>4240.384</v>
+      </c>
+      <c r="U46">
+        <v>14.207000000000001</v>
+      </c>
+      <c r="V46">
+        <v>232.31299999999999</v>
+      </c>
+      <c r="W46">
+        <v>-40.392000000000003</v>
+      </c>
+      <c r="X46">
+        <v>72.668999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>64.847999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>41.753999999999998</v>
+      </c>
+      <c r="D47">
+        <v>618.55399999999997</v>
+      </c>
+      <c r="E47">
+        <v>255.673</v>
+      </c>
+      <c r="F47">
+        <v>310.95</v>
+      </c>
+      <c r="G47">
+        <v>589.10900000000004</v>
+      </c>
+      <c r="H47">
+        <v>14087.739</v>
+      </c>
+      <c r="I47">
+        <v>162.41399999999999</v>
+      </c>
+      <c r="J47">
+        <v>5369.7939999999999</v>
+      </c>
+      <c r="K47">
+        <v>147.21199999999999</v>
+      </c>
+      <c r="L47">
+        <v>-368.52100000000002</v>
+      </c>
+      <c r="M47">
+        <v>-6.2290000000000001</v>
+      </c>
+      <c r="N47">
+        <v>743.68899999999996</v>
+      </c>
+      <c r="O47">
+        <v>9832.3029999999999</v>
+      </c>
+      <c r="P47">
+        <v>5547.1319999999996</v>
+      </c>
+      <c r="Q47">
+        <v>-4.7050000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4255.4359999999997</v>
+      </c>
+      <c r="U47">
+        <v>9.5020000000000007</v>
+      </c>
+      <c r="V47">
+        <v>148.09899999999999</v>
+      </c>
+      <c r="W47">
+        <v>-40.414000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-382.40899999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>41.753999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>107.026</v>
+      </c>
+      <c r="D48">
+        <v>745.60699999999997</v>
+      </c>
+      <c r="E48">
+        <v>336.44900000000001</v>
+      </c>
+      <c r="F48">
+        <v>418.03</v>
+      </c>
+      <c r="G48">
+        <v>606.37400000000002</v>
+      </c>
+      <c r="H48">
+        <v>14412.761</v>
+      </c>
+      <c r="I48">
+        <v>183.90799999999999</v>
+      </c>
+      <c r="J48">
+        <v>5222.4080000000004</v>
+      </c>
+      <c r="K48">
+        <v>361.97199999999998</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1017.9640000000001</v>
+      </c>
+      <c r="O48">
+        <v>10086.786</v>
+      </c>
+      <c r="P48">
+        <v>5704.6689999999999</v>
+      </c>
+      <c r="Q48">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4325.9750000000004</v>
+      </c>
+      <c r="U48">
+        <v>12.919</v>
+      </c>
+      <c r="V48">
+        <v>168.77199999999999</v>
+      </c>
+      <c r="W48">
+        <v>-40.529000000000003</v>
+      </c>
+      <c r="X48">
+        <v>34.581000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>107.026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>153.81200000000001</v>
+      </c>
+      <c r="D49">
+        <v>831.81500000000005</v>
+      </c>
+      <c r="E49">
+        <v>354.19900000000001</v>
+      </c>
+      <c r="F49">
+        <v>476.68900000000002</v>
+      </c>
+      <c r="G49">
+        <v>642.52499999999998</v>
+      </c>
+      <c r="H49">
+        <v>14599.535</v>
+      </c>
+      <c r="I49">
+        <v>202.28299999999999</v>
+      </c>
+      <c r="J49">
+        <v>5203.8670000000002</v>
+      </c>
+      <c r="K49">
+        <v>297.85899999999998</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1005.874</v>
+      </c>
+      <c r="O49">
+        <v>10150.195</v>
+      </c>
+      <c r="P49">
+        <v>5536.69</v>
+      </c>
+      <c r="Q49">
+        <v>5.6120000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>4449.34</v>
+      </c>
+      <c r="U49">
+        <v>18.530999999999999</v>
+      </c>
+      <c r="V49">
+        <v>418.14299999999997</v>
+      </c>
+      <c r="W49">
+        <v>-44.08</v>
+      </c>
+      <c r="X49">
+        <v>-197.506</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>153.81200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>55.478000000000002</v>
+      </c>
+      <c r="D50">
+        <v>680.91300000000001</v>
+      </c>
+      <c r="E50">
+        <v>375.40899999999999</v>
+      </c>
+      <c r="F50">
+        <v>340.52300000000002</v>
+      </c>
+      <c r="G50">
+        <v>499.447</v>
+      </c>
+      <c r="H50">
+        <v>14718.976000000001</v>
+      </c>
+      <c r="I50">
+        <v>279.613</v>
+      </c>
+      <c r="J50">
+        <v>5209.37</v>
+      </c>
+      <c r="K50">
+        <v>269.98500000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>994.83199999999999</v>
+      </c>
+      <c r="O50">
+        <v>10273.987999999999</v>
+      </c>
+      <c r="P50">
+        <v>5595.2740000000003</v>
+      </c>
+      <c r="Q50">
+        <v>5.9020000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>6700</v>
+      </c>
+      <c r="T50">
+        <v>4444.9880000000003</v>
+      </c>
+      <c r="U50">
+        <v>24.433</v>
+      </c>
+      <c r="V50">
+        <v>220.584</v>
+      </c>
+      <c r="W50">
+        <v>-88.436000000000007</v>
+      </c>
+      <c r="X50">
+        <v>-17.681999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>55.478000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>57.643000000000001</v>
+      </c>
+      <c r="D51">
+        <v>636.13699999999994</v>
+      </c>
+      <c r="E51">
+        <v>353.59300000000002</v>
+      </c>
+      <c r="F51">
+        <v>323.93400000000003</v>
+      </c>
+      <c r="G51">
+        <v>491.85</v>
+      </c>
+      <c r="H51">
+        <v>14769.216</v>
+      </c>
+      <c r="I51">
+        <v>166.72300000000001</v>
+      </c>
+      <c r="J51">
+        <v>5202.5950000000003</v>
+      </c>
+      <c r="K51">
+        <v>333.786</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2.3919999999999999</v>
+      </c>
+      <c r="N51">
+        <v>958.33199999999999</v>
+      </c>
+      <c r="O51">
+        <v>10259.554</v>
+      </c>
+      <c r="P51">
+        <v>5652.3050000000003</v>
+      </c>
+      <c r="Q51">
+        <v>-3.2519999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4509.6620000000003</v>
+      </c>
+      <c r="U51">
+        <v>21.181000000000001</v>
+      </c>
+      <c r="V51">
+        <v>149.625</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>74.832999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>57.643000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>431.02800000000002</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>545.84</v>
+      </c>
+      <c r="H52">
+        <v>14977.377</v>
+      </c>
+      <c r="I52">
+        <v>178.41800000000001</v>
+      </c>
+      <c r="J52">
+        <v>5198.326</v>
+      </c>
+      <c r="K52">
+        <v>466.46199999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1049.306</v>
+      </c>
+      <c r="O52">
+        <v>10405.251</v>
+      </c>
+      <c r="P52">
+        <v>5778.652</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4572.1260000000002</v>
+      </c>
+      <c r="U52">
+        <v>20.366</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>822.19</v>
+      </c>
+      <c r="E53">
+        <v>466.41199999999998</v>
+      </c>
+      <c r="F53">
+        <v>484.51600000000002</v>
+      </c>
+      <c r="G53">
+        <v>613.22</v>
+      </c>
+      <c r="H53">
+        <v>15228.446</v>
+      </c>
+      <c r="I53">
+        <v>209.768</v>
+      </c>
+      <c r="J53">
+        <v>5191.7120000000004</v>
+      </c>
+      <c r="K53">
+        <v>389.435</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1141.473</v>
+      </c>
+      <c r="O53">
+        <v>10595.513999999999</v>
+      </c>
+      <c r="P53">
+        <v>5694.808</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4632.9319999999998</v>
+      </c>
+      <c r="U53">
+        <v>32.454000000000001</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>150.66499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>59.692999999999998</v>
+      </c>
+      <c r="D54">
+        <v>706.24199999999996</v>
+      </c>
+      <c r="E54">
+        <v>423.82799999999997</v>
+      </c>
+      <c r="F54">
+        <v>394.24400000000003</v>
+      </c>
+      <c r="G54">
+        <v>571.80700000000002</v>
+      </c>
+      <c r="H54">
+        <v>15088.142</v>
+      </c>
+      <c r="I54">
+        <v>264.11500000000001</v>
+      </c>
+      <c r="J54">
+        <v>5230.058</v>
+      </c>
+      <c r="K54">
+        <v>630.30700000000002</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1235.5329999999999</v>
+      </c>
+      <c r="O54">
+        <v>10360.338</v>
+      </c>
+      <c r="P54">
+        <v>5874.5389999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-5.49</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>6600</v>
+      </c>
+      <c r="T54">
+        <v>4727.8040000000001</v>
+      </c>
+      <c r="U54">
+        <v>26.963999999999999</v>
+      </c>
+      <c r="V54">
+        <v>207.48599999999999</v>
+      </c>
+      <c r="W54">
+        <v>-49.896000000000001</v>
+      </c>
+      <c r="X54">
+        <v>120.95099999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>59.692999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>68.123000000000005</v>
+      </c>
+      <c r="D55">
+        <v>679.00300000000004</v>
+      </c>
+      <c r="E55">
+        <v>416.875</v>
+      </c>
+      <c r="F55">
+        <v>353.82299999999998</v>
+      </c>
+      <c r="G55">
+        <v>687.99400000000003</v>
+      </c>
+      <c r="H55">
+        <v>15274.821</v>
+      </c>
+      <c r="I55">
+        <v>183.839</v>
+      </c>
+      <c r="J55">
+        <v>5224.6390000000001</v>
+      </c>
+      <c r="K55">
+        <v>638.22699999999998</v>
+      </c>
+      <c r="L55">
+        <v>-221</v>
+      </c>
+      <c r="M55">
+        <v>-2.1920000000000002</v>
+      </c>
+      <c r="N55">
+        <v>1197.6990000000001</v>
+      </c>
+      <c r="O55">
+        <v>10473.734</v>
+      </c>
+      <c r="P55">
+        <v>5877.7669999999998</v>
+      </c>
+      <c r="Q55">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4801.0870000000004</v>
+      </c>
+      <c r="U55">
+        <v>30.754999999999999</v>
+      </c>
+      <c r="V55">
+        <v>244.874</v>
+      </c>
+      <c r="W55">
+        <v>-49.968000000000004</v>
+      </c>
+      <c r="X55">
+        <v>-35.883000000000003</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>68.123000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>109.29900000000001</v>
+      </c>
+      <c r="D56">
+        <v>754.77800000000002</v>
+      </c>
+      <c r="E56">
+        <v>464.49299999999999</v>
+      </c>
+      <c r="F56">
+        <v>416.92899999999997</v>
+      </c>
+      <c r="G56">
+        <v>707.63499999999999</v>
+      </c>
+      <c r="H56">
+        <v>15426.447</v>
+      </c>
+      <c r="I56">
+        <v>192.441</v>
+      </c>
+      <c r="J56">
+        <v>5233.5079999999998</v>
+      </c>
+      <c r="K56">
+        <v>702.43799999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1234.9110000000001</v>
+      </c>
+      <c r="O56">
+        <v>10553.321</v>
+      </c>
+      <c r="P56">
+        <v>5950.9759999999997</v>
+      </c>
+      <c r="Q56">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4873.1260000000002</v>
+      </c>
+      <c r="U56">
+        <v>32.133000000000003</v>
+      </c>
+      <c r="V56">
+        <v>205.74100000000001</v>
+      </c>
+      <c r="W56">
+        <v>-55.421999999999997</v>
+      </c>
+      <c r="X56">
+        <v>28.611000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>109.29900000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>152.185</v>
+      </c>
+      <c r="D57">
+        <v>846.16899999999998</v>
+      </c>
+      <c r="E57">
+        <v>476.73099999999999</v>
+      </c>
+      <c r="F57">
+        <v>504.82100000000003</v>
+      </c>
+      <c r="G57">
+        <v>756.96100000000001</v>
+      </c>
+      <c r="H57">
+        <v>15715.647000000001</v>
+      </c>
+      <c r="I57">
+        <v>260.71300000000002</v>
+      </c>
+      <c r="J57">
+        <v>5556.6059999999998</v>
+      </c>
+      <c r="K57">
+        <v>313.97899999999998</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1058.9349999999999</v>
+      </c>
+      <c r="O57">
+        <v>10795.995000000001</v>
+      </c>
+      <c r="P57">
+        <v>5926.1660000000002</v>
+      </c>
+      <c r="Q57">
+        <v>41.994999999999997</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4919.652</v>
+      </c>
+      <c r="U57">
+        <v>74.128</v>
+      </c>
+      <c r="V57">
+        <v>389.64699999999999</v>
+      </c>
+      <c r="W57">
+        <v>-55.457999999999998</v>
+      </c>
+      <c r="X57">
+        <v>-64.484999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>152.185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>93.393000000000001</v>
+      </c>
+      <c r="D58">
+        <v>731.05</v>
+      </c>
+      <c r="E58">
+        <v>453</v>
+      </c>
+      <c r="F58">
+        <v>400.42700000000002</v>
+      </c>
+      <c r="G58">
+        <v>575</v>
+      </c>
+      <c r="H58">
+        <v>16038</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>5442</v>
+      </c>
+      <c r="K58">
+        <v>450</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1241</v>
+      </c>
+      <c r="O58">
+        <v>11123</v>
+      </c>
+      <c r="P58">
+        <v>5953</v>
+      </c>
+      <c r="Q58">
+        <v>-51.164000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>6400</v>
+      </c>
+      <c r="T58">
+        <v>4915</v>
+      </c>
+      <c r="U58">
+        <v>23</v>
+      </c>
+      <c r="V58">
+        <v>256.738</v>
+      </c>
+      <c r="W58">
+        <v>-55.152000000000001</v>
+      </c>
+      <c r="X58">
+        <v>-15.243</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>93.393000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>698</v>
+      </c>
+      <c r="E59">
+        <v>453.83</v>
+      </c>
+      <c r="F59">
+        <v>374</v>
+      </c>
+      <c r="G59">
+        <v>729.01900000000001</v>
+      </c>
+      <c r="H59">
+        <v>16263.531000000001</v>
+      </c>
+      <c r="I59">
+        <v>203.40899999999999</v>
+      </c>
+      <c r="J59">
+        <v>5443.1970000000001</v>
+      </c>
+      <c r="K59">
+        <v>544.53099999999995</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-4</v>
+      </c>
+      <c r="N59">
+        <v>1227.548</v>
+      </c>
+      <c r="O59">
+        <v>11270.593000000001</v>
+      </c>
+      <c r="P59">
+        <v>6048.8770000000004</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4992.9380000000001</v>
+      </c>
+      <c r="U59">
+        <v>24.294</v>
+      </c>
+      <c r="V59">
+        <v>198</v>
+      </c>
+      <c r="W59">
+        <v>-56</v>
+      </c>
+      <c r="X59">
+        <v>49</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>782</v>
+      </c>
+      <c r="E60">
+        <v>511.024</v>
+      </c>
+      <c r="F60">
+        <v>446</v>
+      </c>
+      <c r="G60">
+        <v>890.08500000000004</v>
+      </c>
+      <c r="H60">
+        <v>16732.331999999999</v>
+      </c>
+      <c r="I60">
+        <v>283.57</v>
+      </c>
+      <c r="J60">
+        <v>5447.53</v>
+      </c>
+      <c r="K60">
+        <v>820.98199999999997</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1512.1880000000001</v>
+      </c>
+      <c r="O60">
+        <v>11678.941999999999</v>
+      </c>
+      <c r="P60">
+        <v>6330.4740000000002</v>
+      </c>
+      <c r="Q60">
+        <v>121</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5053.3900000000003</v>
+      </c>
+      <c r="U60">
+        <v>144.75200000000001</v>
+      </c>
+      <c r="V60">
+        <v>220</v>
+      </c>
+      <c r="W60">
+        <v>-61</v>
+      </c>
+      <c r="X60">
+        <v>222</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>174</v>
+      </c>
+      <c r="D61">
+        <v>896</v>
+      </c>
+      <c r="E61">
+        <v>594.66999999999996</v>
+      </c>
+      <c r="F61">
+        <v>532</v>
+      </c>
+      <c r="G61">
+        <v>879.00900000000001</v>
+      </c>
+      <c r="H61">
+        <v>17105.172999999999</v>
+      </c>
+      <c r="I61">
+        <v>281.291</v>
+      </c>
+      <c r="J61">
+        <v>5954.9009999999998</v>
+      </c>
+      <c r="K61">
+        <v>379.94400000000002</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1165.3869999999999</v>
+      </c>
+      <c r="O61">
+        <v>11939.721</v>
+      </c>
+      <c r="P61">
+        <v>6356.8680000000004</v>
+      </c>
+      <c r="Q61">
+        <v>-70</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5165.4520000000002</v>
+      </c>
+      <c r="U61">
+        <v>75.224000000000004</v>
+      </c>
+      <c r="V61">
+        <v>438</v>
+      </c>
+      <c r="W61">
+        <v>-61</v>
+      </c>
+      <c r="X61">
+        <v>-30</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>99</v>
+      </c>
+      <c r="D62">
+        <v>783</v>
+      </c>
+      <c r="E62">
+        <v>522</v>
+      </c>
+      <c r="F62">
+        <v>417</v>
+      </c>
+      <c r="G62">
+        <v>657</v>
+      </c>
+      <c r="H62">
+        <v>17241</v>
+      </c>
+      <c r="I62">
+        <v>126</v>
+      </c>
+      <c r="J62">
+        <v>5875</v>
+      </c>
+      <c r="K62">
+        <v>628</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1533</v>
+      </c>
+      <c r="O62">
+        <v>12192</v>
+      </c>
+      <c r="P62">
+        <v>6557</v>
+      </c>
+      <c r="Q62">
+        <v>-30</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>6700</v>
+      </c>
+      <c r="T62">
+        <v>5049</v>
+      </c>
+      <c r="U62">
+        <v>45</v>
+      </c>
+      <c r="V62">
+        <v>323</v>
+      </c>
+      <c r="W62">
+        <v>-61</v>
+      </c>
+      <c r="X62">
+        <v>67</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>743</v>
+      </c>
+      <c r="E63">
+        <v>467</v>
+      </c>
+      <c r="F63">
+        <v>395</v>
+      </c>
+      <c r="G63">
+        <v>638</v>
+      </c>
+      <c r="H63">
+        <v>17417</v>
+      </c>
+      <c r="I63">
+        <v>116</v>
+      </c>
+      <c r="J63">
+        <v>5864</v>
+      </c>
+      <c r="K63">
+        <v>839</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-11</v>
+      </c>
+      <c r="N63">
+        <v>1614</v>
+      </c>
+      <c r="O63">
+        <v>12335</v>
+      </c>
+      <c r="P63">
+        <v>6757</v>
+      </c>
+      <c r="Q63">
+        <v>21</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5082</v>
+      </c>
+      <c r="U63">
+        <v>66</v>
+      </c>
+      <c r="V63">
+        <v>260</v>
+      </c>
+      <c r="W63">
+        <v>-61</v>
+      </c>
+      <c r="X63">
+        <v>84</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>137</v>
+      </c>
+      <c r="D64">
+        <v>827</v>
+      </c>
+      <c r="E64">
+        <v>526</v>
+      </c>
+      <c r="F64">
+        <v>476</v>
+      </c>
+      <c r="G64">
+        <v>691</v>
+      </c>
+      <c r="H64">
+        <v>17706</v>
+      </c>
+      <c r="I64">
+        <v>148</v>
+      </c>
+      <c r="J64">
+        <v>5880</v>
+      </c>
+      <c r="K64">
+        <v>950</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1740</v>
+      </c>
+      <c r="O64">
+        <v>12553</v>
+      </c>
+      <c r="P64">
+        <v>6884</v>
+      </c>
+      <c r="Q64">
+        <v>-14</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5153</v>
+      </c>
+      <c r="U64">
+        <v>52</v>
+      </c>
+      <c r="V64">
+        <v>276</v>
+      </c>
+      <c r="W64">
+        <v>-66</v>
+      </c>
+      <c r="X64">
+        <v>52</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>148</v>
+      </c>
+      <c r="D65">
+        <v>930</v>
+      </c>
+      <c r="E65">
+        <v>587</v>
+      </c>
+      <c r="F65">
+        <v>510</v>
+      </c>
+      <c r="G65">
+        <v>801</v>
+      </c>
+      <c r="H65">
+        <v>17971</v>
+      </c>
+      <c r="I65">
+        <v>135</v>
+      </c>
+      <c r="J65">
+        <v>5879</v>
+      </c>
+      <c r="K65">
+        <v>951</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1928</v>
+      </c>
+      <c r="O65">
+        <v>12733</v>
+      </c>
+      <c r="P65">
+        <v>6883</v>
+      </c>
+      <c r="Q65">
+        <v>-6</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5238</v>
+      </c>
+      <c r="U65">
+        <v>46</v>
+      </c>
+      <c r="V65">
+        <v>409</v>
+      </c>
+      <c r="W65">
+        <v>-67</v>
+      </c>
+      <c r="X65">
+        <v>-66</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>101</v>
+      </c>
+      <c r="D66">
+        <v>802</v>
+      </c>
+      <c r="E66">
+        <v>532</v>
+      </c>
+      <c r="F66">
+        <v>508</v>
+      </c>
+      <c r="G66">
+        <v>784</v>
+      </c>
+      <c r="H66">
+        <v>18482</v>
+      </c>
+      <c r="I66">
+        <v>154</v>
+      </c>
+      <c r="J66">
+        <v>5759</v>
+      </c>
+      <c r="K66">
+        <v>849</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2392</v>
+      </c>
+      <c r="O66">
+        <v>13264</v>
+      </c>
+      <c r="P66">
+        <v>7182</v>
+      </c>
+      <c r="Q66">
+        <v>26</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>6800</v>
+      </c>
+      <c r="T66">
+        <v>5218</v>
+      </c>
+      <c r="U66">
+        <v>75</v>
+      </c>
+      <c r="V66">
+        <v>344</v>
+      </c>
+      <c r="W66">
+        <v>-67</v>
+      </c>
+      <c r="X66">
+        <v>258</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>93</v>
+      </c>
+      <c r="D67">
+        <v>756</v>
+      </c>
+      <c r="E67">
+        <v>477</v>
+      </c>
+      <c r="F67">
+        <v>422</v>
+      </c>
+      <c r="G67">
+        <v>767</v>
+      </c>
+      <c r="H67">
+        <v>18610</v>
+      </c>
+      <c r="I67">
+        <v>108</v>
+      </c>
+      <c r="J67">
+        <v>5753</v>
+      </c>
+      <c r="K67">
+        <v>980</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-4</v>
+      </c>
+      <c r="N67">
+        <v>2418</v>
+      </c>
+      <c r="O67">
+        <v>13323</v>
+      </c>
+      <c r="P67">
+        <v>7307</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5287</v>
+      </c>
+      <c r="U67">
+        <v>78</v>
+      </c>
+      <c r="V67">
+        <v>277</v>
+      </c>
+      <c r="W67">
+        <v>-67</v>
+      </c>
+      <c r="X67">
+        <v>14</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>131</v>
+      </c>
+      <c r="D68">
+        <v>844</v>
+      </c>
+      <c r="E68">
+        <v>524</v>
+      </c>
+      <c r="F68">
+        <v>497</v>
+      </c>
+      <c r="G68">
+        <v>808</v>
+      </c>
+      <c r="H68">
+        <v>18966</v>
+      </c>
+      <c r="I68">
+        <v>134</v>
+      </c>
+      <c r="J68">
+        <v>5659</v>
+      </c>
+      <c r="K68">
+        <v>1117</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2661</v>
+      </c>
+      <c r="O68">
+        <v>13582</v>
+      </c>
+      <c r="P68">
+        <v>7462</v>
+      </c>
+      <c r="Q68">
+        <v>-12</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5384</v>
+      </c>
+      <c r="U68">
+        <v>64</v>
+      </c>
+      <c r="V68">
+        <v>247</v>
+      </c>
+      <c r="W68">
+        <v>-74</v>
+      </c>
+      <c r="X68">
+        <v>91</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>203</v>
+      </c>
+      <c r="D69">
+        <v>936</v>
+      </c>
+      <c r="E69">
+        <v>546</v>
+      </c>
+      <c r="F69">
+        <v>592</v>
+      </c>
+      <c r="G69">
+        <v>860</v>
+      </c>
+      <c r="H69">
+        <v>19361</v>
+      </c>
+      <c r="I69">
+        <v>144</v>
+      </c>
+      <c r="J69">
+        <v>6683</v>
+      </c>
+      <c r="K69">
+        <v>103</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1747</v>
+      </c>
+      <c r="O69">
+        <v>13843</v>
+      </c>
+      <c r="P69">
+        <v>7473</v>
+      </c>
+      <c r="Q69">
+        <v>29</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>5518</v>
+      </c>
+      <c r="U69">
+        <v>93</v>
+      </c>
+      <c r="V69">
+        <v>496</v>
+      </c>
+      <c r="W69">
+        <v>-74</v>
+      </c>
+      <c r="X69">
+        <v>-86</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-1</v>
+      </c>
+      <c r="D70">
+        <v>821</v>
+      </c>
+      <c r="E70">
+        <v>484</v>
+      </c>
+      <c r="F70">
+        <v>455</v>
+      </c>
+      <c r="G70">
+        <v>720</v>
+      </c>
+      <c r="H70">
+        <v>19482</v>
+      </c>
+      <c r="I70">
+        <v>195</v>
+      </c>
+      <c r="J70">
+        <v>6497</v>
+      </c>
+      <c r="K70">
+        <v>905</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2325</v>
+      </c>
+      <c r="O70">
+        <v>14097</v>
+      </c>
+      <c r="P70">
+        <v>7728</v>
+      </c>
+      <c r="Q70">
+        <v>-39</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>6900</v>
+      </c>
+      <c r="T70">
+        <v>5385</v>
+      </c>
+      <c r="U70">
+        <v>55</v>
+      </c>
+      <c r="V70">
+        <v>429</v>
+      </c>
+      <c r="W70">
+        <v>-74</v>
+      </c>
+      <c r="X70">
+        <v>188</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>106</v>
+      </c>
+      <c r="D71">
+        <v>761</v>
+      </c>
+      <c r="E71">
+        <v>461</v>
+      </c>
+      <c r="F71">
+        <v>414</v>
+      </c>
+      <c r="G71">
+        <v>729</v>
+      </c>
+      <c r="H71">
+        <v>19728</v>
+      </c>
+      <c r="I71">
+        <v>133</v>
+      </c>
+      <c r="J71">
+        <v>6403</v>
+      </c>
+      <c r="K71">
+        <v>1183</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-6</v>
+      </c>
+      <c r="N71">
+        <v>2539</v>
+      </c>
+      <c r="O71">
+        <v>14277</v>
+      </c>
+      <c r="P71">
+        <v>8007</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>5451</v>
+      </c>
+      <c r="U71">
+        <v>55</v>
+      </c>
+      <c r="V71">
+        <v>219</v>
+      </c>
+      <c r="W71">
+        <v>-74</v>
+      </c>
+      <c r="X71">
+        <v>166</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>162</v>
+      </c>
+      <c r="D72">
+        <v>853</v>
+      </c>
+      <c r="E72">
+        <v>536</v>
+      </c>
+      <c r="F72">
+        <v>485</v>
+      </c>
+      <c r="G72">
+        <v>833</v>
+      </c>
+      <c r="H72">
+        <v>20471</v>
+      </c>
+      <c r="I72">
+        <v>139</v>
+      </c>
+      <c r="J72">
+        <v>6352</v>
+      </c>
+      <c r="K72">
+        <v>1649</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2951</v>
+      </c>
+      <c r="O72">
+        <v>14735</v>
+      </c>
+      <c r="P72">
+        <v>8368</v>
+      </c>
+      <c r="Q72">
+        <v>15</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>5736</v>
+      </c>
+      <c r="U72">
+        <v>68</v>
+      </c>
+      <c r="V72">
+        <v>306</v>
+      </c>
+      <c r="W72">
+        <v>-81</v>
+      </c>
+      <c r="X72">
+        <v>472</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>187</v>
+      </c>
+      <c r="D73">
+        <v>976</v>
+      </c>
+      <c r="E73">
+        <v>550</v>
+      </c>
+      <c r="F73">
+        <v>586</v>
+      </c>
+      <c r="G73">
+        <v>800</v>
+      </c>
+      <c r="H73">
+        <v>20880</v>
+      </c>
+      <c r="I73">
+        <v>141</v>
+      </c>
+      <c r="J73">
+        <v>7577</v>
+      </c>
+      <c r="K73">
+        <v>564</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1748</v>
+      </c>
+      <c r="O73">
+        <v>15020</v>
+      </c>
+      <c r="P73">
+        <v>8404</v>
+      </c>
+      <c r="Q73">
+        <v>19</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>5860</v>
+      </c>
+      <c r="U73">
+        <v>86</v>
+      </c>
+      <c r="V73">
+        <v>467</v>
+      </c>
+      <c r="W73">
+        <v>-82</v>
+      </c>
+      <c r="X73">
+        <v>-52</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>112</v>
+      </c>
+      <c r="D74">
+        <v>850</v>
+      </c>
+      <c r="E74">
+        <v>487</v>
+      </c>
+      <c r="F74">
+        <v>456</v>
+      </c>
+      <c r="G74">
+        <v>781</v>
+      </c>
+      <c r="H74">
+        <v>21223</v>
+      </c>
+      <c r="I74">
+        <v>175</v>
+      </c>
+      <c r="J74">
+        <v>7575</v>
+      </c>
+      <c r="K74">
+        <v>964</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2094</v>
+      </c>
+      <c r="O74">
+        <v>15359</v>
+      </c>
+      <c r="P74">
+        <v>8625</v>
+      </c>
+      <c r="Q74">
+        <v>43</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7100</v>
+      </c>
+      <c r="T74">
+        <v>5864</v>
+      </c>
+      <c r="U74">
+        <v>130</v>
+      </c>
+      <c r="V74">
+        <v>394</v>
+      </c>
+      <c r="W74">
+        <v>-82</v>
+      </c>
+      <c r="X74">
+        <v>140</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>113</v>
+      </c>
+      <c r="D75">
+        <v>813</v>
+      </c>
+      <c r="E75">
+        <v>477</v>
+      </c>
+      <c r="F75">
+        <v>448</v>
+      </c>
+      <c r="G75">
+        <v>691</v>
+      </c>
+      <c r="H75">
+        <v>21464</v>
+      </c>
+      <c r="I75">
+        <v>130</v>
+      </c>
+      <c r="J75">
+        <v>7568</v>
+      </c>
+      <c r="K75">
+        <v>1201</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-12</v>
+      </c>
+      <c r="N75">
+        <v>2156</v>
+      </c>
+      <c r="O75">
+        <v>15532</v>
+      </c>
+      <c r="P75">
+        <v>8985</v>
+      </c>
+      <c r="Q75">
+        <v>-73</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5932</v>
+      </c>
+      <c r="U75">
+        <v>63</v>
+      </c>
+      <c r="V75">
+        <v>168</v>
+      </c>
+      <c r="W75">
+        <v>-82</v>
+      </c>
+      <c r="X75">
+        <v>110</v>
+      </c>
+      <c r="Y75">
+        <v>101</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>170</v>
+      </c>
+      <c r="D76">
+        <v>882</v>
+      </c>
+      <c r="E76">
+        <v>516</v>
+      </c>
+      <c r="F76">
+        <v>510</v>
+      </c>
+      <c r="G76">
+        <v>741</v>
+      </c>
+      <c r="H76">
+        <v>21854</v>
+      </c>
+      <c r="I76">
+        <v>140</v>
+      </c>
+      <c r="J76">
+        <v>8648</v>
+      </c>
+      <c r="K76">
+        <v>397</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1317</v>
+      </c>
+      <c r="O76">
+        <v>15827</v>
+      </c>
+      <c r="P76">
+        <v>9178</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>7100</v>
+      </c>
+      <c r="T76">
+        <v>6027</v>
+      </c>
+      <c r="U76">
+        <v>64</v>
+      </c>
+      <c r="V76">
+        <v>312</v>
+      </c>
+      <c r="W76">
+        <v>-91</v>
+      </c>
+      <c r="X76">
+        <v>155</v>
+      </c>
+      <c r="Y76">
+        <v>97</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>240</v>
+      </c>
+      <c r="D77">
+        <v>1013</v>
+      </c>
+      <c r="E77">
+        <v>522</v>
+      </c>
+      <c r="F77">
+        <v>618</v>
+      </c>
+      <c r="G77">
+        <v>799</v>
+      </c>
+      <c r="H77">
+        <v>22238</v>
+      </c>
+      <c r="I77">
+        <v>149</v>
+      </c>
+      <c r="J77">
+        <v>8646</v>
+      </c>
+      <c r="K77">
+        <v>474</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1488</v>
+      </c>
+      <c r="O77">
+        <v>16048</v>
+      </c>
+      <c r="P77">
+        <v>9254</v>
+      </c>
+      <c r="Q77">
+        <v>29</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6190</v>
+      </c>
+      <c r="U77">
+        <v>94</v>
+      </c>
+      <c r="V77">
+        <v>465</v>
+      </c>
+      <c r="W77">
+        <v>-90</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>94</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>98</v>
+      </c>
+      <c r="D78">
+        <v>902</v>
+      </c>
+      <c r="E78">
+        <v>466</v>
+      </c>
+      <c r="F78">
+        <v>490</v>
+      </c>
+      <c r="G78">
+        <v>1285</v>
+      </c>
+      <c r="H78">
+        <v>22682</v>
+      </c>
+      <c r="I78">
+        <v>203</v>
+      </c>
+      <c r="J78">
+        <v>8643</v>
+      </c>
+      <c r="K78">
+        <v>786</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2045</v>
+      </c>
+      <c r="O78">
+        <v>16561</v>
+      </c>
+      <c r="P78">
+        <v>9547</v>
+      </c>
+      <c r="Q78">
+        <v>-25</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>6800</v>
+      </c>
+      <c r="T78">
+        <v>6121</v>
+      </c>
+      <c r="U78">
+        <v>60</v>
+      </c>
+      <c r="V78">
+        <v>438</v>
+      </c>
+      <c r="W78">
+        <v>-90</v>
+      </c>
+      <c r="X78">
+        <v>228</v>
+      </c>
+      <c r="Y78">
+        <v>90</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>124</v>
+      </c>
+      <c r="D79">
+        <v>844</v>
+      </c>
+      <c r="E79">
+        <v>464</v>
+      </c>
+      <c r="F79">
+        <v>461</v>
+      </c>
+      <c r="G79">
+        <v>1801</v>
+      </c>
+      <c r="H79">
+        <v>23546</v>
+      </c>
+      <c r="I79">
+        <v>152</v>
+      </c>
+      <c r="J79">
+        <v>8625</v>
+      </c>
+      <c r="K79">
+        <v>1641</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-6</v>
+      </c>
+      <c r="N79">
+        <v>2767</v>
+      </c>
+      <c r="O79">
+        <v>17303</v>
+      </c>
+      <c r="P79">
+        <v>10420</v>
+      </c>
+      <c r="Q79">
+        <v>498</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6243</v>
+      </c>
+      <c r="U79">
+        <v>556</v>
+      </c>
+      <c r="V79">
+        <v>180</v>
+      </c>
+      <c r="W79">
+        <v>-90</v>
+      </c>
+      <c r="X79">
+        <v>768</v>
+      </c>
+      <c r="Y79">
+        <v>87</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>176</v>
+      </c>
+      <c r="D80">
+        <v>931</v>
+      </c>
+      <c r="E80">
+        <v>505</v>
+      </c>
+      <c r="F80">
+        <v>540</v>
+      </c>
+      <c r="G80">
+        <v>1896</v>
+      </c>
+      <c r="H80">
+        <v>24009</v>
+      </c>
+      <c r="I80">
+        <v>169</v>
+      </c>
+      <c r="J80">
+        <v>9593</v>
+      </c>
+      <c r="K80">
+        <v>920</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2113</v>
+      </c>
+      <c r="O80">
+        <v>17671</v>
+      </c>
+      <c r="P80">
+        <v>10676</v>
+      </c>
+      <c r="Q80">
+        <v>16</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>6800</v>
+      </c>
+      <c r="T80">
+        <v>6338</v>
+      </c>
+      <c r="U80">
+        <v>569</v>
+      </c>
+      <c r="V80">
+        <v>351</v>
+      </c>
+      <c r="W80">
+        <v>-100</v>
+      </c>
+      <c r="X80">
+        <v>173</v>
+      </c>
+      <c r="Y80">
+        <v>84</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>264</v>
+      </c>
+      <c r="D81">
+        <v>1079</v>
+      </c>
+      <c r="E81">
+        <v>559</v>
+      </c>
+      <c r="F81">
+        <v>660</v>
+      </c>
+      <c r="G81">
+        <v>1967</v>
+      </c>
+      <c r="H81">
+        <v>24394</v>
+      </c>
+      <c r="I81">
+        <v>162</v>
+      </c>
+      <c r="J81">
+        <v>9584</v>
+      </c>
+      <c r="K81">
+        <v>1044</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2260</v>
+      </c>
+      <c r="O81">
+        <v>17882</v>
+      </c>
+      <c r="P81">
+        <v>10789</v>
+      </c>
+      <c r="Q81">
+        <v>-6</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>6800</v>
+      </c>
+      <c r="T81">
+        <v>6512</v>
+      </c>
+      <c r="U81">
+        <v>560</v>
+      </c>
+      <c r="V81">
+        <v>457</v>
+      </c>
+      <c r="W81">
+        <v>-100</v>
+      </c>
+      <c r="X81">
+        <v>25</v>
+      </c>
+      <c r="Y81">
+        <v>83</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>145</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>923</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>527</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>494</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1906</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>24766</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>189</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>9332</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>1282</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2881</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>18312</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11038</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-23</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>7000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6454</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>547</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>438</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-99</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>154</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>82</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>145</v>
       </c>
     </row>
